--- a/teaching/traditional_assets/database/data/indonesia/indonesia_retail_general.xlsx
+++ b/teaching/traditional_assets/database/data/indonesia/indonesia_retail_general.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="idx_mapi" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -351,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +584,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,124 +593,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.067</v>
-      </c>
-      <c r="E2">
-        <v>0.212</v>
+        <v>-0.07870000000000001</v>
       </c>
       <c r="F2">
-        <v>0.1615</v>
+        <v>-0.193</v>
       </c>
       <c r="G2">
-        <v>0.07854984894259819</v>
+        <v>0.1443859345227785</v>
       </c>
       <c r="H2">
-        <v>0.07854984894259819</v>
+        <v>0.1443859345227785</v>
       </c>
       <c r="I2">
-        <v>0.05495747759823175</v>
+        <v>-0.01748363496694281</v>
       </c>
       <c r="J2">
-        <v>0.04701874655558962</v>
+        <v>-0.01748363496694281</v>
       </c>
       <c r="K2">
-        <v>46.9</v>
+        <v>-208.22</v>
       </c>
       <c r="L2">
-        <v>0.01889224572004028</v>
+        <v>-0.07213580460765633</v>
       </c>
       <c r="M2">
-        <v>35.5</v>
+        <v>51.509</v>
       </c>
       <c r="N2">
-        <v>0.01919749080683539</v>
+        <v>0.03048230559829566</v>
       </c>
       <c r="O2">
-        <v>0.7569296375266524</v>
+        <v>-0.2473777735087888</v>
       </c>
       <c r="P2">
-        <v>35.5</v>
+        <v>22.7</v>
       </c>
       <c r="Q2">
-        <v>0.01919749080683539</v>
+        <v>0.01343354243105693</v>
       </c>
       <c r="R2">
-        <v>0.7569296375266524</v>
+        <v>-0.1090193065027375</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>28.809</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.5593003164495525</v>
       </c>
       <c r="U2">
-        <v>135.35</v>
+        <v>394.49</v>
       </c>
       <c r="V2">
-        <v>0.07319381354099069</v>
+        <v>0.233453663155403</v>
       </c>
       <c r="W2">
-        <v>0.1665707710011507</v>
+        <v>-0.2474662162162162</v>
       </c>
       <c r="X2">
-        <v>0.08446603389108109</v>
+        <v>0.1347473214001175</v>
       </c>
       <c r="Y2">
-        <v>0.08210473711006963</v>
+        <v>-0.3822135376163337</v>
       </c>
       <c r="Z2">
-        <v>2.655817851513582</v>
+        <v>1.751928861898876</v>
       </c>
       <c r="AA2">
-        <v>0.1756615170611252</v>
+        <v>-0.04249701616694998</v>
       </c>
       <c r="AB2">
-        <v>0.08003012132013562</v>
+        <v>0.07543003763368061</v>
       </c>
       <c r="AC2">
-        <v>0.09563139574098956</v>
+        <v>-0.1212740202840354</v>
       </c>
       <c r="AD2">
-        <v>194.8</v>
+        <v>1227.7</v>
       </c>
       <c r="AE2">
-        <v>122.8403093119485</v>
+        <v>157.982561660402</v>
       </c>
       <c r="AF2">
-        <v>317.6403093119485</v>
+        <v>1385.682561660402</v>
       </c>
       <c r="AG2">
-        <v>182.2903093119485</v>
+        <v>991.1925616604019</v>
       </c>
       <c r="AH2">
-        <v>0.146591471437418</v>
+        <v>0.4505577690261052</v>
       </c>
       <c r="AI2">
-        <v>0.2720127983756143</v>
+        <v>0.5650352368849892</v>
       </c>
       <c r="AJ2">
-        <v>0.08973230562625177</v>
+        <v>0.3697110450192868</v>
       </c>
       <c r="AK2">
-        <v>0.1765711162413356</v>
+        <v>0.4816541835695554</v>
       </c>
       <c r="AL2">
-        <v>9.539999999999999</v>
+        <v>96.917</v>
       </c>
       <c r="AM2">
-        <v>-8.511000000000003</v>
+        <v>75.74299999999999</v>
       </c>
       <c r="AN2">
-        <v>0.7711186762726625</v>
+        <v>9.877705366481615</v>
       </c>
       <c r="AO2">
-        <v>14.43396226415094</v>
+        <v>-0.5826635162045875</v>
       </c>
       <c r="AP2">
-        <v>0.7215988809751742</v>
+        <v>7.974837570684704</v>
       </c>
       <c r="AQ2">
-        <v>-16.17906238984843</v>
+        <v>-0.7455474433280964</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +718,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PT Ramayana Lestari Sentosa Tbk (IDX:RALS)</t>
+          <t>PT. Mitra Adiperkasa Tbk (IDX:MAPI)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -728,121 +727,118 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.067</v>
-      </c>
-      <c r="E3">
-        <v>0.118</v>
+        <v>0.05400000000000001</v>
       </c>
       <c r="F3">
-        <v>0.118</v>
+        <v>-0.176</v>
       </c>
       <c r="G3">
-        <v>0.134789156626506</v>
+        <v>0.1833985619368344</v>
       </c>
       <c r="H3">
-        <v>0.134789156626506</v>
+        <v>0.1833985619368344</v>
       </c>
       <c r="I3">
-        <v>0.1014056224899598</v>
+        <v>0.00790024574497133</v>
       </c>
       <c r="J3">
-        <v>0.08880958213630863</v>
+        <v>0.00790024574497133</v>
       </c>
       <c r="K3">
-        <v>47.4</v>
+        <v>-21.2</v>
       </c>
       <c r="L3">
-        <v>0.1189759036144578</v>
+        <v>-0.01929553108218804</v>
       </c>
       <c r="M3">
-        <v>23.8</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.0460348162475822</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.5021097046413503</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>23.8</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.0460348162475822</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.5021097046413503</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>63.5</v>
+        <v>116.4</v>
       </c>
       <c r="V3">
-        <v>0.1228239845261122</v>
+        <v>0.1237244897959184</v>
       </c>
       <c r="W3">
-        <v>0.1885441527446301</v>
+        <v>-0.05080277977474239</v>
       </c>
       <c r="X3">
-        <v>0.07972201906395171</v>
+        <v>0.0878547579084881</v>
       </c>
       <c r="Y3">
-        <v>0.1088221336806784</v>
+        <v>-0.1386575376832305</v>
       </c>
       <c r="Z3">
-        <v>2.333919156414763</v>
+        <v>2.258840460526316</v>
       </c>
       <c r="AA3">
-        <v>0.207274385021121</v>
+        <v>0.0178453947368421</v>
       </c>
       <c r="AB3">
-        <v>0.07972201906395171</v>
+        <v>0.070468959577094</v>
       </c>
       <c r="AC3">
-        <v>0.1275523659571693</v>
+        <v>-0.05262356484025189</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>477.7</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>477.7</v>
       </c>
       <c r="AG3">
-        <v>-63.5</v>
+        <v>361.3</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.3367641875220303</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.5261013215859031</v>
       </c>
       <c r="AJ3">
-        <v>-0.1400220507166483</v>
+        <v>0.2774748483219415</v>
       </c>
       <c r="AK3">
-        <v>-0.2799823633156966</v>
+        <v>0.4564173825164224</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>30.7</v>
       </c>
       <c r="AM3">
-        <v>-12.8</v>
+        <v>25.86</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>6.834048640915593</v>
+      </c>
+      <c r="AO3">
+        <v>0.2827361563517915</v>
       </c>
       <c r="AP3">
-        <v>-1.175925925925926</v>
+        <v>5.168812589413447</v>
       </c>
       <c r="AQ3">
-        <v>-3.15625</v>
+        <v>0.3356535189481825</v>
       </c>
     </row>
     <row r="4">
@@ -853,7 +849,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PT. Mitra Adiperkasa Tbk (IDX:MAPI)</t>
+          <t>PT Matahari Putra Prima Tbk (IDX:MPPA)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -862,121 +858,115 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.123</v>
-      </c>
-      <c r="E4">
-        <v>0.306</v>
-      </c>
-      <c r="F4">
-        <v>0.205</v>
+        <v>-0.126</v>
       </c>
       <c r="G4">
-        <v>0.1065006915629322</v>
+        <v>0.0122993537627684</v>
       </c>
       <c r="H4">
-        <v>0.1065006915629322</v>
+        <v>0.0122993537627684</v>
       </c>
       <c r="I4">
-        <v>0.08347164591977871</v>
+        <v>-0.015181655000994</v>
       </c>
       <c r="J4">
-        <v>0.05766702776550217</v>
+        <v>-0.015181655000994</v>
       </c>
       <c r="K4">
-        <v>57.9</v>
+        <v>-41.6</v>
       </c>
       <c r="L4">
-        <v>0.04004149377593361</v>
+        <v>-0.08672086720867209</v>
       </c>
       <c r="M4">
-        <v>11.7</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.009313062166679932</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>0.2020725388601036</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>11.7</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.009313062166679932</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>0.2020725388601036</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
-        <v>62.2</v>
+        <v>9.69</v>
       </c>
       <c r="V4">
-        <v>0.04951046724508477</v>
+        <v>0.170298769771529</v>
       </c>
       <c r="W4">
-        <v>0.1665707710011507</v>
+        <v>-0.6677367576243981</v>
       </c>
       <c r="X4">
-        <v>0.08446603389108109</v>
+        <v>0.2806267292439844</v>
       </c>
       <c r="Y4">
-        <v>0.08210473711006963</v>
+        <v>-0.9483634868683826</v>
       </c>
       <c r="Z4">
-        <v>3.04613440067411</v>
+        <v>2.14330522520135</v>
       </c>
       <c r="AA4">
-        <v>0.1756615170611252</v>
+        <v>-0.03253892049083466</v>
       </c>
       <c r="AB4">
-        <v>0.08003012132013562</v>
+        <v>0.07955533380763222</v>
       </c>
       <c r="AC4">
-        <v>0.09563139574098956</v>
+        <v>-0.1120942542984669</v>
       </c>
       <c r="AD4">
-        <v>131.3</v>
+        <v>156.4</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>107.6631995198841</v>
       </c>
       <c r="AF4">
-        <v>131.3</v>
+        <v>264.0631995198841</v>
       </c>
       <c r="AG4">
-        <v>69.10000000000001</v>
+        <v>254.3731995198841</v>
       </c>
       <c r="AH4">
-        <v>0.09462381089651198</v>
+        <v>0.8227211091953396</v>
       </c>
       <c r="AI4">
-        <v>0.2088104325699746</v>
+        <v>0.9520484331626462</v>
       </c>
       <c r="AJ4">
-        <v>0.05213520446657614</v>
+        <v>0.8172023801349939</v>
       </c>
       <c r="AK4">
-        <v>0.1219555241793152</v>
+        <v>0.9503125452086509</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="AM4">
-        <v>-4.36</v>
+        <v>15.356</v>
       </c>
       <c r="AN4">
-        <v>0.7298499166203447</v>
+        <v>5.312500000000001</v>
+      </c>
+      <c r="AO4">
+        <v>-0.5348101265822784</v>
       </c>
       <c r="AP4">
-        <v>0.3841022790439133</v>
+        <v>8.640394005430847</v>
       </c>
       <c r="AQ4">
-        <v>-27.68348623853211</v>
+        <v>-0.5502735087262307</v>
       </c>
     </row>
     <row r="5">
@@ -987,7 +977,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PT Matahari Putra Prima Tbk (IDX:MPPA)</t>
+          <t>PT Multipolar Tbk (IDX:MLPL)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -996,25 +986,25 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.0737</v>
+        <v>-0.1</v>
       </c>
       <c r="G5">
-        <v>-0.01990283654599592</v>
+        <v>0.003463749824709017</v>
       </c>
       <c r="H5">
-        <v>-0.01990283654599592</v>
+        <v>0.003463749824709017</v>
       </c>
       <c r="I5">
-        <v>-0.03865861442154787</v>
+        <v>-0.03295470480998457</v>
       </c>
       <c r="J5">
-        <v>-0.03865861442154787</v>
+        <v>-0.03295470480998457</v>
       </c>
       <c r="K5">
-        <v>-58.4</v>
+        <v>-112.1</v>
       </c>
       <c r="L5">
-        <v>-0.09152170506190252</v>
+        <v>-0.1572009535829477</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1038,73 +1028,9059 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>9.65</v>
+        <v>74.8</v>
       </c>
       <c r="V5">
-        <v>0.1271409749670619</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>-0.5309090909090909</v>
+        <v>-0.2948448185165702</v>
       </c>
       <c r="X5">
-        <v>0.1911616608876711</v>
+        <v>0.2305969926829372</v>
       </c>
       <c r="Y5">
-        <v>-0.7220707517967619</v>
+        <v>-0.5254418111995075</v>
       </c>
       <c r="Z5">
-        <v>2.205361574118042</v>
+        <v>1.289558392708597</v>
       </c>
       <c r="AA5">
-        <v>-0.08525622275392726</v>
+        <v>-0.04249701616694998</v>
       </c>
       <c r="AB5">
-        <v>0.08406081796351542</v>
+        <v>0.07877700411708539</v>
       </c>
       <c r="AC5">
-        <v>-0.1693170407174427</v>
+        <v>-0.1212740202840354</v>
       </c>
       <c r="AD5">
-        <v>63.5</v>
+        <v>266.9</v>
       </c>
       <c r="AE5">
-        <v>122.8403093119485</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>186.3403093119485</v>
+        <v>266.9</v>
       </c>
       <c r="AG5">
-        <v>176.6903093119485</v>
+        <v>192.1</v>
       </c>
       <c r="AH5">
-        <v>0.7105708111802407</v>
+        <v>0.7810945273631841</v>
       </c>
       <c r="AI5">
-        <v>0.7494372486408174</v>
+        <v>0.4558497011101622</v>
       </c>
       <c r="AJ5">
-        <v>0.6995134128195565</v>
+        <v>0.7197452229299363</v>
       </c>
       <c r="AK5">
-        <v>0.7393199741890737</v>
+        <v>0.3761503818288623</v>
       </c>
       <c r="AL5">
-        <v>9.539999999999999</v>
+        <v>45.3</v>
       </c>
       <c r="AM5">
-        <v>8.648999999999999</v>
+        <v>42.33</v>
       </c>
       <c r="AN5">
-        <v>3.392094017094017</v>
+        <v>29.98876404494382</v>
       </c>
       <c r="AO5">
-        <v>-2.452830188679245</v>
+        <v>-0.5187637969094923</v>
       </c>
       <c r="AP5">
-        <v>9.438584899142548</v>
+        <v>21.58426966292134</v>
       </c>
       <c r="AQ5">
-        <v>-2.705515088449532</v>
+        <v>-0.5551618237656508</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PT Ramayana Lestari Sentosa Tbk (IDX:RALS)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Retail (General)</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>-0.0441</v>
+      </c>
+      <c r="F6">
+        <v>-0.193</v>
+      </c>
+      <c r="G6">
+        <v>0.2531461761858664</v>
+      </c>
+      <c r="H6">
+        <v>0.2531461761858664</v>
+      </c>
+      <c r="I6">
+        <v>-0.07066795740561471</v>
+      </c>
+      <c r="J6">
+        <v>-0.07066795740561471</v>
+      </c>
+      <c r="K6">
+        <v>-4.02</v>
+      </c>
+      <c r="L6">
+        <v>-0.01945788964181994</v>
+      </c>
+      <c r="M6">
+        <v>22.709</v>
+      </c>
+      <c r="N6">
+        <v>0.06036416799574695</v>
+      </c>
+      <c r="O6">
+        <v>-5.649004975124378</v>
+      </c>
+      <c r="P6">
+        <v>22.7</v>
+      </c>
+      <c r="Q6">
+        <v>0.06034024455077087</v>
+      </c>
+      <c r="R6">
+        <v>-5.64676616915423</v>
+      </c>
+      <c r="S6">
+        <v>0.009000000000000341</v>
+      </c>
+      <c r="T6">
+        <v>0.0003963186401867251</v>
+      </c>
+      <c r="U6">
+        <v>125.8</v>
+      </c>
+      <c r="V6">
+        <v>0.3343965975544923</v>
+      </c>
+      <c r="W6">
+        <v>-0.01384774371339993</v>
+      </c>
+      <c r="X6">
+        <v>0.06568473465810684</v>
+      </c>
+      <c r="Y6">
+        <v>-0.07953247837150677</v>
+      </c>
+      <c r="Z6">
+        <v>0.9109347442680775</v>
+      </c>
+      <c r="AA6">
+        <v>-0.06437389770723104</v>
+      </c>
+      <c r="AB6">
+        <v>0.06475949446085105</v>
+      </c>
+      <c r="AC6">
+        <v>-0.1291333921680821</v>
+      </c>
+      <c r="AD6">
+        <v>12.2</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>12.2</v>
+      </c>
+      <c r="AG6">
+        <v>-113.6</v>
+      </c>
+      <c r="AH6">
+        <v>0.03141091658084449</v>
+      </c>
+      <c r="AI6">
+        <v>0.04631738800303721</v>
+      </c>
+      <c r="AJ6">
+        <v>-0.4325971058644326</v>
+      </c>
+      <c r="AK6">
+        <v>-0.8255813953488372</v>
+      </c>
+      <c r="AL6">
+        <v>0.167</v>
+      </c>
+      <c r="AM6">
+        <v>-10.233</v>
+      </c>
+      <c r="AN6">
+        <v>-5.980392156862744</v>
+      </c>
+      <c r="AO6">
+        <v>-87.42514970059879</v>
+      </c>
+      <c r="AP6">
+        <v>55.68627450980392</v>
+      </c>
+      <c r="AQ6">
+        <v>1.426756571875305</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PT Matahari Department Store Tbk (IDX:LPPF)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Retail (General)</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>-0.07870000000000001</v>
+      </c>
+      <c r="F7">
+        <v>-0.261</v>
+      </c>
+      <c r="G7">
+        <v>0.398043254376931</v>
+      </c>
+      <c r="H7">
+        <v>0.398043254376931</v>
+      </c>
+      <c r="I7">
+        <v>-0.0354373646449629</v>
+      </c>
+      <c r="J7">
+        <v>-0.0354373646449629</v>
+      </c>
+      <c r="K7">
+        <v>-29.3</v>
+      </c>
+      <c r="L7">
+        <v>-0.07543769309989702</v>
+      </c>
+      <c r="M7">
+        <v>28.8</v>
+      </c>
+      <c r="N7">
+        <v>0.1194525093322273</v>
+      </c>
+      <c r="O7">
+        <v>-0.9829351535836177</v>
+      </c>
+      <c r="P7">
+        <v>-0</v>
+      </c>
+      <c r="Q7">
+        <v>-0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>28.8</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>67.8</v>
+      </c>
+      <c r="V7">
+        <v>0.2812111157196184</v>
+      </c>
+      <c r="W7">
+        <v>-0.2474662162162162</v>
+      </c>
+      <c r="X7">
+        <v>0.1347473214001175</v>
+      </c>
+      <c r="Y7">
+        <v>-0.3822135376163337</v>
+      </c>
+      <c r="Z7">
+        <v>2.464164267164973</v>
+      </c>
+      <c r="AA7">
+        <v>-0.08732348768061295</v>
+      </c>
+      <c r="AB7">
+        <v>0.07543003763368061</v>
+      </c>
+      <c r="AC7">
+        <v>-0.1627535253142935</v>
+      </c>
+      <c r="AD7">
+        <v>314.5</v>
+      </c>
+      <c r="AE7">
+        <v>50.31936214051794</v>
+      </c>
+      <c r="AF7">
+        <v>364.8193621405179</v>
+      </c>
+      <c r="AG7">
+        <v>297.0193621405179</v>
+      </c>
+      <c r="AH7">
+        <v>0.6020922666206417</v>
+      </c>
+      <c r="AI7">
+        <v>0.8725244396070627</v>
+      </c>
+      <c r="AJ7">
+        <v>0.551958139842881</v>
+      </c>
+      <c r="AK7">
+        <v>0.8478531141575307</v>
+      </c>
+      <c r="AL7">
+        <v>4.95</v>
+      </c>
+      <c r="AM7">
+        <v>2.43</v>
+      </c>
+      <c r="AN7">
+        <v>17.3852957435047</v>
+      </c>
+      <c r="AO7">
+        <v>-3.757575757575758</v>
+      </c>
+      <c r="AP7">
+        <v>16.41898077062012</v>
+      </c>
+      <c r="AQ7">
+        <v>-7.654320987654321</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PT. Mitra Adiperkasa Tbk (IDX:MAPI)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>IDX:MAPI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Retail (General)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.33676418752203</v>
+      </c>
+      <c r="F2">
+        <v>0.02</v>
+      </c>
+      <c r="G2">
+        <v>940.8</v>
+      </c>
+      <c r="H2">
+        <v>1541.54316296</v>
+      </c>
+      <c r="I2">
+        <v>1302.1</v>
+      </c>
+      <c r="J2">
+        <v>1453.51316296</v>
+      </c>
+      <c r="K2">
+        <v>477.7</v>
+      </c>
+      <c r="L2">
+        <v>28.37</v>
+      </c>
+      <c r="M2">
+        <v>0.070468959577094</v>
+      </c>
+      <c r="N2">
+        <v>0.0640969597352217</v>
+      </c>
+      <c r="O2">
+        <v>0.036228727066783</v>
+      </c>
+      <c r="P2">
+        <v>0.01377</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0878547579084881</v>
+      </c>
+      <c r="T2">
+        <v>0.0651240405461446</v>
+      </c>
+      <c r="U2">
+        <v>1.19683053626791</v>
+      </c>
+      <c r="V2">
+        <v>0.850513936550044</v>
+      </c>
+      <c r="W2">
+        <v>18.88623437207622</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>940.8</v>
+      </c>
+      <c r="AB2">
+        <v>0.065635656450951</v>
+      </c>
+      <c r="AC2">
+        <v>0.04262203184327408</v>
+      </c>
+      <c r="AD2">
+        <v>0.15</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="AH2">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="AI2">
+        <v>102.59</v>
+      </c>
+      <c r="AJ2">
+        <v>477.7</v>
+      </c>
+      <c r="AK2">
+        <v>477.7</v>
+      </c>
+      <c r="AL2">
+        <v>30.7</v>
+      </c>
+      <c r="AM2">
+        <v>477.7</v>
+      </c>
+      <c r="AN2">
+        <v>116.4</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.06417217626401374</v>
+      </c>
+      <c r="C2">
+        <v>1567.920746728044</v>
+      </c>
+      <c r="D2">
+        <v>1451.520746728044</v>
+      </c>
+      <c r="E2">
+        <v>-477.7</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>116.4</v>
+      </c>
+      <c r="H2">
+        <v>940.8</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K2">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L2">
+        <v>8.68</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>8.68</v>
+      </c>
+      <c r="O2">
+        <v>1.302</v>
+      </c>
+      <c r="P2">
+        <v>7.378</v>
+      </c>
+      <c r="Q2">
+        <v>68.59800000000001</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.06417217626401374</v>
+      </c>
+      <c r="T2">
+        <v>0.8360116928977359</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.15</v>
+      </c>
+      <c r="W2">
+        <v>0.01377</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.06413456799961773</v>
+      </c>
+      <c r="C3">
+        <v>1554.731271595125</v>
+      </c>
+      <c r="D3">
+        <v>1452.516271595125</v>
+      </c>
+      <c r="E3">
+        <v>-463.515</v>
+      </c>
+      <c r="F3">
+        <v>14.185</v>
+      </c>
+      <c r="G3">
+        <v>116.4</v>
+      </c>
+      <c r="H3">
+        <v>940.8</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K3">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L3">
+        <v>8.68</v>
+      </c>
+      <c r="M3">
+        <v>0.229797</v>
+      </c>
+      <c r="N3">
+        <v>8.450203</v>
+      </c>
+      <c r="O3">
+        <v>1.26753045</v>
+      </c>
+      <c r="P3">
+        <v>7.18267255</v>
+      </c>
+      <c r="Q3">
+        <v>68.40267255000001</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.06464330100971487</v>
+      </c>
+      <c r="T3">
+        <v>0.84318957106908</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.15</v>
+      </c>
+      <c r="W3">
+        <v>0.01377</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>37.77246874415245</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.06409695973522171</v>
+      </c>
+      <c r="C4">
+        <v>1541.543162960004</v>
+      </c>
+      <c r="D4">
+        <v>1453.513162960004</v>
+      </c>
+      <c r="E4">
+        <v>-449.33</v>
+      </c>
+      <c r="F4">
+        <v>28.37</v>
+      </c>
+      <c r="G4">
+        <v>116.4</v>
+      </c>
+      <c r="H4">
+        <v>940.8</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K4">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L4">
+        <v>8.68</v>
+      </c>
+      <c r="M4">
+        <v>0.459594</v>
+      </c>
+      <c r="N4">
+        <v>8.220406000000001</v>
+      </c>
+      <c r="O4">
+        <v>1.2330609</v>
+      </c>
+      <c r="P4">
+        <v>6.987345100000001</v>
+      </c>
+      <c r="Q4">
+        <v>68.20734510000001</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.06512404054614461</v>
+      </c>
+      <c r="T4">
+        <v>0.8505139365500437</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.15</v>
+      </c>
+      <c r="W4">
+        <v>0.01377</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>18.88623437207622</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.06410015147082568</v>
+      </c>
+      <c r="C5">
+        <v>1527.273505717486</v>
+      </c>
+      <c r="D5">
+        <v>1453.428505717486</v>
+      </c>
+      <c r="E5">
+        <v>-435.145</v>
+      </c>
+      <c r="F5">
+        <v>42.555</v>
+      </c>
+      <c r="G5">
+        <v>116.4</v>
+      </c>
+      <c r="H5">
+        <v>940.8</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K5">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L5">
+        <v>8.68</v>
+      </c>
+      <c r="M5">
+        <v>0.757479</v>
+      </c>
+      <c r="N5">
+        <v>7.922521</v>
+      </c>
+      <c r="O5">
+        <v>1.18837815</v>
+      </c>
+      <c r="P5">
+        <v>6.73414285</v>
+      </c>
+      <c r="Q5">
+        <v>67.95414285000001</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.06561469223796462</v>
+      </c>
+      <c r="T5">
+        <v>0.8579893198759753</v>
+      </c>
+      <c r="U5">
+        <v>0.0178</v>
+      </c>
+      <c r="V5">
+        <v>0.15</v>
+      </c>
+      <c r="W5">
+        <v>0.01513</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>11.45906355159681</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.06418834320642966</v>
+      </c>
+      <c r="C6">
+        <v>1510.753212374537</v>
+      </c>
+      <c r="D6">
+        <v>1451.093212374537</v>
+      </c>
+      <c r="E6">
+        <v>-420.96</v>
+      </c>
+      <c r="F6">
+        <v>56.74</v>
+      </c>
+      <c r="G6">
+        <v>116.4</v>
+      </c>
+      <c r="H6">
+        <v>940.8</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K6">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L6">
+        <v>8.68</v>
+      </c>
+      <c r="M6">
+        <v>1.197214</v>
+      </c>
+      <c r="N6">
+        <v>7.482786</v>
+      </c>
+      <c r="O6">
+        <v>1.1224179</v>
+      </c>
+      <c r="P6">
+        <v>6.360368100000001</v>
+      </c>
+      <c r="Q6">
+        <v>67.5803681</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.06611556584003089</v>
+      </c>
+      <c r="T6">
+        <v>0.8656204403545307</v>
+      </c>
+      <c r="U6">
+        <v>0.0211</v>
+      </c>
+      <c r="V6">
+        <v>0.15</v>
+      </c>
+      <c r="W6">
+        <v>0.017935</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>7.250165801602721</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.06425613494203364</v>
+      </c>
+      <c r="C7">
+        <v>1494.77820062255</v>
+      </c>
+      <c r="D7">
+        <v>1449.303200622549</v>
+      </c>
+      <c r="E7">
+        <v>-406.775</v>
+      </c>
+      <c r="F7">
+        <v>70.925</v>
+      </c>
+      <c r="G7">
+        <v>116.4</v>
+      </c>
+      <c r="H7">
+        <v>940.8</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K7">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L7">
+        <v>8.68</v>
+      </c>
+      <c r="M7">
+        <v>1.602905</v>
+      </c>
+      <c r="N7">
+        <v>7.077095</v>
+      </c>
+      <c r="O7">
+        <v>1.06156425</v>
+      </c>
+      <c r="P7">
+        <v>6.01553075</v>
+      </c>
+      <c r="Q7">
+        <v>67.23553075000001</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.0666269841495091</v>
+      </c>
+      <c r="T7">
+        <v>0.8734122160010557</v>
+      </c>
+      <c r="U7">
+        <v>0.0226</v>
+      </c>
+      <c r="V7">
+        <v>0.15</v>
+      </c>
+      <c r="W7">
+        <v>0.01921</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>5.415168085444865</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.06427292667763762</v>
+      </c>
+      <c r="C8">
+        <v>1480.150504233151</v>
+      </c>
+      <c r="D8">
+        <v>1448.860504233151</v>
+      </c>
+      <c r="E8">
+        <v>-392.59</v>
+      </c>
+      <c r="F8">
+        <v>85.11</v>
+      </c>
+      <c r="G8">
+        <v>116.4</v>
+      </c>
+      <c r="H8">
+        <v>940.8</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K8">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L8">
+        <v>8.68</v>
+      </c>
+      <c r="M8">
+        <v>1.923486</v>
+      </c>
+      <c r="N8">
+        <v>6.756514</v>
+      </c>
+      <c r="O8">
+        <v>1.0134771</v>
+      </c>
+      <c r="P8">
+        <v>5.7430369</v>
+      </c>
+      <c r="Q8">
+        <v>66.96303690000001</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.0671492836996145</v>
+      </c>
+      <c r="T8">
+        <v>0.881369774108145</v>
+      </c>
+      <c r="U8">
+        <v>0.0226</v>
+      </c>
+      <c r="V8">
+        <v>0.15</v>
+      </c>
+      <c r="W8">
+        <v>0.01921</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>4.512640071204054</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.06977123574346292</v>
+      </c>
+      <c r="C9">
+        <v>1334.228774404498</v>
+      </c>
+      <c r="D9">
+        <v>1317.123774404498</v>
+      </c>
+      <c r="E9">
+        <v>-378.405</v>
+      </c>
+      <c r="F9">
+        <v>99.29500000000002</v>
+      </c>
+      <c r="G9">
+        <v>116.4</v>
+      </c>
+      <c r="H9">
+        <v>940.8</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K9">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L9">
+        <v>8.68</v>
+      </c>
+      <c r="M9">
+        <v>10.823155</v>
+      </c>
+      <c r="N9">
+        <v>-2.143155000000002</v>
+      </c>
+      <c r="O9">
+        <v>-0.3214732500000003</v>
+      </c>
+      <c r="P9">
+        <v>-1.821681750000002</v>
+      </c>
+      <c r="Q9">
+        <v>59.39831825</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.06780549111176971</v>
+      </c>
+      <c r="T9">
+        <v>0.8913675016793714</v>
+      </c>
+      <c r="U9">
+        <v>0.109</v>
+      </c>
+      <c r="V9">
+        <v>0.1202976396438931</v>
+      </c>
+      <c r="W9">
+        <v>0.09588755727881565</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>0.8019842642926206</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.07336706434073911</v>
+      </c>
+      <c r="C10">
+        <v>1246.118874256632</v>
+      </c>
+      <c r="D10">
+        <v>1243.198874256632</v>
+      </c>
+      <c r="E10">
+        <v>-364.22</v>
+      </c>
+      <c r="F10">
+        <v>113.48</v>
+      </c>
+      <c r="G10">
+        <v>116.4</v>
+      </c>
+      <c r="H10">
+        <v>940.8</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K10">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L10">
+        <v>8.68</v>
+      </c>
+      <c r="M10">
+        <v>15.909896</v>
+      </c>
+      <c r="N10">
+        <v>-7.229896</v>
+      </c>
+      <c r="O10">
+        <v>-1.0844844</v>
+      </c>
+      <c r="P10">
+        <v>-6.1454116</v>
+      </c>
+      <c r="Q10">
+        <v>55.0745884</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.06855319057741523</v>
+      </c>
+      <c r="T10">
+        <v>0.9027591675219194</v>
+      </c>
+      <c r="U10">
+        <v>0.1402</v>
+      </c>
+      <c r="V10">
+        <v>0.08183585863791944</v>
+      </c>
+      <c r="W10">
+        <v>0.1287266126189637</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>0.545572390919463</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.07867613228073062</v>
+      </c>
+      <c r="C11">
+        <v>1136.797015666107</v>
+      </c>
+      <c r="D11">
+        <v>1148.062015666107</v>
+      </c>
+      <c r="E11">
+        <v>-350.035</v>
+      </c>
+      <c r="F11">
+        <v>127.665</v>
+      </c>
+      <c r="G11">
+        <v>116.4</v>
+      </c>
+      <c r="H11">
+        <v>940.8</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K11">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L11">
+        <v>8.68</v>
+      </c>
+      <c r="M11">
+        <v>23.4520605</v>
+      </c>
+      <c r="N11">
+        <v>-14.7720605</v>
+      </c>
+      <c r="O11">
+        <v>-2.215809075</v>
+      </c>
+      <c r="P11">
+        <v>-12.556251425</v>
+      </c>
+      <c r="Q11">
+        <v>48.66374857500001</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.06929780579254231</v>
+      </c>
+      <c r="T11">
+        <v>0.9141038428918312</v>
+      </c>
+      <c r="U11">
+        <v>0.1837</v>
+      </c>
+      <c r="V11">
+        <v>0.05551750985803572</v>
+      </c>
+      <c r="W11">
+        <v>0.1735014334390788</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>0.3701167323869048</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.08042013228073061</v>
+      </c>
+      <c r="C12">
+        <v>1094.459366182578</v>
+      </c>
+      <c r="D12">
+        <v>1119.909366182578</v>
+      </c>
+      <c r="E12">
+        <v>-335.85</v>
+      </c>
+      <c r="F12">
+        <v>141.85</v>
+      </c>
+      <c r="G12">
+        <v>116.4</v>
+      </c>
+      <c r="H12">
+        <v>940.8</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K12">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L12">
+        <v>8.68</v>
+      </c>
+      <c r="M12">
+        <v>26.057845</v>
+      </c>
+      <c r="N12">
+        <v>-17.377845</v>
+      </c>
+      <c r="O12">
+        <v>-2.60667675</v>
+      </c>
+      <c r="P12">
+        <v>-14.77116825</v>
+      </c>
+      <c r="Q12">
+        <v>46.44883175</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.06996444807912612</v>
+      </c>
+      <c r="T12">
+        <v>0.924260552257296</v>
+      </c>
+      <c r="U12">
+        <v>0.1837</v>
+      </c>
+      <c r="V12">
+        <v>0.04996575887223214</v>
+      </c>
+      <c r="W12">
+        <v>0.174521290095171</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>0.3331050591482143</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.08216413228073061</v>
+      </c>
+      <c r="C13">
+        <v>1053.469381706849</v>
+      </c>
+      <c r="D13">
+        <v>1093.104381706849</v>
+      </c>
+      <c r="E13">
+        <v>-321.665</v>
+      </c>
+      <c r="F13">
+        <v>156.035</v>
+      </c>
+      <c r="G13">
+        <v>116.4</v>
+      </c>
+      <c r="H13">
+        <v>940.8</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K13">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L13">
+        <v>8.68</v>
+      </c>
+      <c r="M13">
+        <v>28.6636295</v>
+      </c>
+      <c r="N13">
+        <v>-19.9836295</v>
+      </c>
+      <c r="O13">
+        <v>-2.997544425</v>
+      </c>
+      <c r="P13">
+        <v>-16.986085075</v>
+      </c>
+      <c r="Q13">
+        <v>44.23391492500001</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.07064607109125114</v>
+      </c>
+      <c r="T13">
+        <v>0.934645502282659</v>
+      </c>
+      <c r="U13">
+        <v>0.1837</v>
+      </c>
+      <c r="V13">
+        <v>0.04542341715657467</v>
+      </c>
+      <c r="W13">
+        <v>0.1753557182683372</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>0.3028227810438312</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.0839081322807306</v>
+      </c>
+      <c r="C14">
+        <v>1013.732555338598</v>
+      </c>
+      <c r="D14">
+        <v>1067.552555338598</v>
+      </c>
+      <c r="E14">
+        <v>-307.48</v>
+      </c>
+      <c r="F14">
+        <v>170.22</v>
+      </c>
+      <c r="G14">
+        <v>116.4</v>
+      </c>
+      <c r="H14">
+        <v>940.8</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K14">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L14">
+        <v>8.68</v>
+      </c>
+      <c r="M14">
+        <v>31.269414</v>
+      </c>
+      <c r="N14">
+        <v>-22.589414</v>
+      </c>
+      <c r="O14">
+        <v>-3.3884121</v>
+      </c>
+      <c r="P14">
+        <v>-19.2010019</v>
+      </c>
+      <c r="Q14">
+        <v>42.0189981</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.07134318553546991</v>
+      </c>
+      <c r="T14">
+        <v>0.9452664738995074</v>
+      </c>
+      <c r="U14">
+        <v>0.1837</v>
+      </c>
+      <c r="V14">
+        <v>0.04163813239352678</v>
+      </c>
+      <c r="W14">
+        <v>0.1760510750793091</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>0.2775875492901786</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.0856521322807306</v>
+      </c>
+      <c r="C15">
+        <v>975.1630149086723</v>
+      </c>
+      <c r="D15">
+        <v>1043.168014908672</v>
+      </c>
+      <c r="E15">
+        <v>-293.295</v>
+      </c>
+      <c r="F15">
+        <v>184.405</v>
+      </c>
+      <c r="G15">
+        <v>116.4</v>
+      </c>
+      <c r="H15">
+        <v>940.8</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K15">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L15">
+        <v>8.68</v>
+      </c>
+      <c r="M15">
+        <v>33.8751985</v>
+      </c>
+      <c r="N15">
+        <v>-25.1951985</v>
+      </c>
+      <c r="O15">
+        <v>-3.779279775</v>
+      </c>
+      <c r="P15">
+        <v>-21.415918725</v>
+      </c>
+      <c r="Q15">
+        <v>39.804081275</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.07205632559909599</v>
+      </c>
+      <c r="T15">
+        <v>0.9561316057834096</v>
+      </c>
+      <c r="U15">
+        <v>0.1837</v>
+      </c>
+      <c r="V15">
+        <v>0.03843519913248625</v>
+      </c>
+      <c r="W15">
+        <v>0.1766394539193623</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>0.2562346608832418</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.08739613228073061</v>
+      </c>
+      <c r="C16">
+        <v>937.6825588486846</v>
+      </c>
+      <c r="D16">
+        <v>1019.872558848685</v>
+      </c>
+      <c r="E16">
+        <v>-279.11</v>
+      </c>
+      <c r="F16">
+        <v>198.59</v>
+      </c>
+      <c r="G16">
+        <v>116.4</v>
+      </c>
+      <c r="H16">
+        <v>940.8</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K16">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L16">
+        <v>8.68</v>
+      </c>
+      <c r="M16">
+        <v>36.48098300000001</v>
+      </c>
+      <c r="N16">
+        <v>-27.80098300000001</v>
+      </c>
+      <c r="O16">
+        <v>-4.170147450000001</v>
+      </c>
+      <c r="P16">
+        <v>-23.63083555000001</v>
+      </c>
+      <c r="Q16">
+        <v>37.58916445</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.07278605031536454</v>
+      </c>
+      <c r="T16">
+        <v>0.9672494151529841</v>
+      </c>
+      <c r="U16">
+        <v>0.1837</v>
+      </c>
+      <c r="V16">
+        <v>0.03568982776588009</v>
+      </c>
+      <c r="W16">
+        <v>0.1771437786394078</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>0.2379321851058673</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.0891401322807306</v>
+      </c>
+      <c r="C17">
+        <v>901.2198184213761</v>
+      </c>
+      <c r="D17">
+        <v>997.594818421376</v>
+      </c>
+      <c r="E17">
+        <v>-264.925</v>
+      </c>
+      <c r="F17">
+        <v>212.775</v>
+      </c>
+      <c r="G17">
+        <v>116.4</v>
+      </c>
+      <c r="H17">
+        <v>940.8</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K17">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L17">
+        <v>8.68</v>
+      </c>
+      <c r="M17">
+        <v>39.0867675</v>
+      </c>
+      <c r="N17">
+        <v>-30.4067675</v>
+      </c>
+      <c r="O17">
+        <v>-4.561015125</v>
+      </c>
+      <c r="P17">
+        <v>-25.845752375</v>
+      </c>
+      <c r="Q17">
+        <v>35.37424762500001</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.07353294502495708</v>
+      </c>
+      <c r="T17">
+        <v>0.978628820037137</v>
+      </c>
+      <c r="U17">
+        <v>0.1837</v>
+      </c>
+      <c r="V17">
+        <v>0.03331050591482142</v>
+      </c>
+      <c r="W17">
+        <v>0.1775808600634473</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>0.2220700394321429</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.09088413228073061</v>
+      </c>
+      <c r="C18">
+        <v>865.7095274035071</v>
+      </c>
+      <c r="D18">
+        <v>976.2695274035071</v>
+      </c>
+      <c r="E18">
+        <v>-250.74</v>
+      </c>
+      <c r="F18">
+        <v>226.96</v>
+      </c>
+      <c r="G18">
+        <v>116.4</v>
+      </c>
+      <c r="H18">
+        <v>940.8</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K18">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L18">
+        <v>8.68</v>
+      </c>
+      <c r="M18">
+        <v>41.692552</v>
+      </c>
+      <c r="N18">
+        <v>-33.012552</v>
+      </c>
+      <c r="O18">
+        <v>-4.9518828</v>
+      </c>
+      <c r="P18">
+        <v>-28.0606692</v>
+      </c>
+      <c r="Q18">
+        <v>33.15933080000001</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.07429762294192085</v>
+      </c>
+      <c r="T18">
+        <v>0.9902791631328172</v>
+      </c>
+      <c r="U18">
+        <v>0.1837</v>
+      </c>
+      <c r="V18">
+        <v>0.03122859929514508</v>
+      </c>
+      <c r="W18">
+        <v>0.1779633063094818</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>0.2081906619676339</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.09262813228073059</v>
+      </c>
+      <c r="C19">
+        <v>831.0918834789363</v>
+      </c>
+      <c r="D19">
+        <v>955.8368834789363</v>
+      </c>
+      <c r="E19">
+        <v>-236.555</v>
+      </c>
+      <c r="F19">
+        <v>241.145</v>
+      </c>
+      <c r="G19">
+        <v>116.4</v>
+      </c>
+      <c r="H19">
+        <v>940.8</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K19">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L19">
+        <v>8.68</v>
+      </c>
+      <c r="M19">
+        <v>44.2983365</v>
+      </c>
+      <c r="N19">
+        <v>-35.61833650000001</v>
+      </c>
+      <c r="O19">
+        <v>-5.342750475000001</v>
+      </c>
+      <c r="P19">
+        <v>-30.275586025</v>
+      </c>
+      <c r="Q19">
+        <v>30.944413975</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.07508072683278735</v>
+      </c>
+      <c r="T19">
+        <v>1.002210237387429</v>
+      </c>
+      <c r="U19">
+        <v>0.1837</v>
+      </c>
+      <c r="V19">
+        <v>0.0293916228660189</v>
+      </c>
+      <c r="W19">
+        <v>0.1783007588795123</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>0.195944152440126</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.09437213228073062</v>
+      </c>
+      <c r="C20">
+        <v>797.3119881813036</v>
+      </c>
+      <c r="D20">
+        <v>936.2419881813036</v>
+      </c>
+      <c r="E20">
+        <v>-222.37</v>
+      </c>
+      <c r="F20">
+        <v>255.33</v>
+      </c>
+      <c r="G20">
+        <v>116.4</v>
+      </c>
+      <c r="H20">
+        <v>940.8</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K20">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L20">
+        <v>8.68</v>
+      </c>
+      <c r="M20">
+        <v>46.904121</v>
+      </c>
+      <c r="N20">
+        <v>-38.224121</v>
+      </c>
+      <c r="O20">
+        <v>-5.733618149999999</v>
+      </c>
+      <c r="P20">
+        <v>-32.49050285</v>
+      </c>
+      <c r="Q20">
+        <v>28.72949715000001</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.07588293081855307</v>
+      </c>
+      <c r="T20">
+        <v>1.01443231345313</v>
+      </c>
+      <c r="U20">
+        <v>0.1837</v>
+      </c>
+      <c r="V20">
+        <v>0.02775875492901786</v>
+      </c>
+      <c r="W20">
+        <v>0.1786007167195394</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>0.1850583661934524</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.09611613228073061</v>
+      </c>
+      <c r="C21">
+        <v>764.3193543407598</v>
+      </c>
+      <c r="D21">
+        <v>917.4343543407598</v>
+      </c>
+      <c r="E21">
+        <v>-208.185</v>
+      </c>
+      <c r="F21">
+        <v>269.515</v>
+      </c>
+      <c r="G21">
+        <v>116.4</v>
+      </c>
+      <c r="H21">
+        <v>940.8</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K21">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L21">
+        <v>8.68</v>
+      </c>
+      <c r="M21">
+        <v>49.5099055</v>
+      </c>
+      <c r="N21">
+        <v>-40.8299055</v>
+      </c>
+      <c r="O21">
+        <v>-6.124485824999999</v>
+      </c>
+      <c r="P21">
+        <v>-34.70541967499999</v>
+      </c>
+      <c r="Q21">
+        <v>26.51458032500001</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.07670494231014013</v>
+      </c>
+      <c r="T21">
+        <v>1.026956169174773</v>
+      </c>
+      <c r="U21">
+        <v>0.1837</v>
+      </c>
+      <c r="V21">
+        <v>0.0262977678274906</v>
+      </c>
+      <c r="W21">
+        <v>0.17886910005009</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>0.1753184521832707</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.09786013228073062</v>
+      </c>
+      <c r="C22">
+        <v>732.0674717293116</v>
+      </c>
+      <c r="D22">
+        <v>899.3674717293115</v>
+      </c>
+      <c r="E22">
+        <v>-194</v>
+      </c>
+      <c r="F22">
+        <v>283.7</v>
+      </c>
+      <c r="G22">
+        <v>116.4</v>
+      </c>
+      <c r="H22">
+        <v>940.8</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K22">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L22">
+        <v>8.68</v>
+      </c>
+      <c r="M22">
+        <v>52.11569</v>
+      </c>
+      <c r="N22">
+        <v>-43.43569</v>
+      </c>
+      <c r="O22">
+        <v>-6.5153535</v>
+      </c>
+      <c r="P22">
+        <v>-36.9203365</v>
+      </c>
+      <c r="Q22">
+        <v>24.2996635</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.07754750408901689</v>
+      </c>
+      <c r="T22">
+        <v>1.039793121289458</v>
+      </c>
+      <c r="U22">
+        <v>0.1837</v>
+      </c>
+      <c r="V22">
+        <v>0.02498287943611607</v>
+      </c>
+      <c r="W22">
+        <v>0.1791106450475855</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>0.1665525295741072</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.09960413228073062</v>
+      </c>
+      <c r="C23">
+        <v>700.5134230370558</v>
+      </c>
+      <c r="D23">
+        <v>881.9984230370558</v>
+      </c>
+      <c r="E23">
+        <v>-179.815</v>
+      </c>
+      <c r="F23">
+        <v>297.885</v>
+      </c>
+      <c r="G23">
+        <v>116.4</v>
+      </c>
+      <c r="H23">
+        <v>940.8</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K23">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L23">
+        <v>8.68</v>
+      </c>
+      <c r="M23">
+        <v>54.7214745</v>
+      </c>
+      <c r="N23">
+        <v>-46.0414745</v>
+      </c>
+      <c r="O23">
+        <v>-6.906221175</v>
+      </c>
+      <c r="P23">
+        <v>-39.135253325</v>
+      </c>
+      <c r="Q23">
+        <v>22.08474667500001</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.0784113965458399</v>
+      </c>
+      <c r="T23">
+        <v>1.052955059533628</v>
+      </c>
+      <c r="U23">
+        <v>0.1837</v>
+      </c>
+      <c r="V23">
+        <v>0.02379321851058673</v>
+      </c>
+      <c r="W23">
+        <v>0.1793291857596052</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>0.1586214567372449</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.1013481322807306</v>
+      </c>
+      <c r="C24">
+        <v>669.6175435041027</v>
+      </c>
+      <c r="D24">
+        <v>865.2875435041027</v>
+      </c>
+      <c r="E24">
+        <v>-165.63</v>
+      </c>
+      <c r="F24">
+        <v>312.07</v>
+      </c>
+      <c r="G24">
+        <v>116.4</v>
+      </c>
+      <c r="H24">
+        <v>940.8</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K24">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L24">
+        <v>8.68</v>
+      </c>
+      <c r="M24">
+        <v>57.327259</v>
+      </c>
+      <c r="N24">
+        <v>-48.647259</v>
+      </c>
+      <c r="O24">
+        <v>-7.29708885</v>
+      </c>
+      <c r="P24">
+        <v>-41.35017015</v>
+      </c>
+      <c r="Q24">
+        <v>19.86982985000001</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.07929744009129937</v>
+      </c>
+      <c r="T24">
+        <v>1.066454483373803</v>
+      </c>
+      <c r="U24">
+        <v>0.1837</v>
+      </c>
+      <c r="V24">
+        <v>0.02271170857828734</v>
+      </c>
+      <c r="W24">
+        <v>0.1795278591341686</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>0.1514113905219155</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.1030921322807306</v>
+      </c>
+      <c r="C25">
+        <v>639.3431185259567</v>
+      </c>
+      <c r="D25">
+        <v>849.1981185259567</v>
+      </c>
+      <c r="E25">
+        <v>-151.445</v>
+      </c>
+      <c r="F25">
+        <v>326.255</v>
+      </c>
+      <c r="G25">
+        <v>116.4</v>
+      </c>
+      <c r="H25">
+        <v>940.8</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K25">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L25">
+        <v>8.68</v>
+      </c>
+      <c r="M25">
+        <v>59.9330435</v>
+      </c>
+      <c r="N25">
+        <v>-51.2530435</v>
+      </c>
+      <c r="O25">
+        <v>-7.687956524999999</v>
+      </c>
+      <c r="P25">
+        <v>-43.565086975</v>
+      </c>
+      <c r="Q25">
+        <v>17.65491302500001</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.08020649775482275</v>
+      </c>
+      <c r="T25">
+        <v>1.080304541599437</v>
+      </c>
+      <c r="U25">
+        <v>0.1837</v>
+      </c>
+      <c r="V25">
+        <v>0.02172424298792702</v>
+      </c>
+      <c r="W25">
+        <v>0.1797092565631178</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>0.1448282865861801</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.1048361322807306</v>
+      </c>
+      <c r="C26">
+        <v>609.6561143799506</v>
+      </c>
+      <c r="D26">
+        <v>833.6961143799507</v>
+      </c>
+      <c r="E26">
+        <v>-137.26</v>
+      </c>
+      <c r="F26">
+        <v>340.44</v>
+      </c>
+      <c r="G26">
+        <v>116.4</v>
+      </c>
+      <c r="H26">
+        <v>940.8</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K26">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L26">
+        <v>8.68</v>
+      </c>
+      <c r="M26">
+        <v>62.538828</v>
+      </c>
+      <c r="N26">
+        <v>-53.858828</v>
+      </c>
+      <c r="O26">
+        <v>-8.0788242</v>
+      </c>
+      <c r="P26">
+        <v>-45.7800038</v>
+      </c>
+      <c r="Q26">
+        <v>15.4399962</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.08113947798843883</v>
+      </c>
+      <c r="T26">
+        <v>1.094519075041535</v>
+      </c>
+      <c r="U26">
+        <v>0.1837</v>
+      </c>
+      <c r="V26">
+        <v>0.02081906619676339</v>
+      </c>
+      <c r="W26">
+        <v>0.1798755375396545</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>0.1387937746450892</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.1065801322807306</v>
+      </c>
+      <c r="C27">
+        <v>580.5249379162635</v>
+      </c>
+      <c r="D27">
+        <v>818.7499379162635</v>
+      </c>
+      <c r="E27">
+        <v>-123.075</v>
+      </c>
+      <c r="F27">
+        <v>354.625</v>
+      </c>
+      <c r="G27">
+        <v>116.4</v>
+      </c>
+      <c r="H27">
+        <v>940.8</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K27">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L27">
+        <v>8.68</v>
+      </c>
+      <c r="M27">
+        <v>65.14461249999999</v>
+      </c>
+      <c r="N27">
+        <v>-56.46461249999999</v>
+      </c>
+      <c r="O27">
+        <v>-8.469691874999999</v>
+      </c>
+      <c r="P27">
+        <v>-47.99492062499999</v>
+      </c>
+      <c r="Q27">
+        <v>13.22507937500001</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.08209733769495135</v>
+      </c>
+      <c r="T27">
+        <v>1.109112662708755</v>
+      </c>
+      <c r="U27">
+        <v>0.1837</v>
+      </c>
+      <c r="V27">
+        <v>0.01998630354889286</v>
+      </c>
+      <c r="W27">
+        <v>0.1800285160380684</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.1332420236592857</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.1083241322807306</v>
+      </c>
+      <c r="C28">
+        <v>551.9202216426797</v>
+      </c>
+      <c r="D28">
+        <v>804.3302216426797</v>
+      </c>
+      <c r="E28">
+        <v>-108.89</v>
+      </c>
+      <c r="F28">
+        <v>368.81</v>
+      </c>
+      <c r="G28">
+        <v>116.4</v>
+      </c>
+      <c r="H28">
+        <v>940.8</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K28">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L28">
+        <v>8.68</v>
+      </c>
+      <c r="M28">
+        <v>67.75039700000001</v>
+      </c>
+      <c r="N28">
+        <v>-59.07039700000001</v>
+      </c>
+      <c r="O28">
+        <v>-8.860559550000001</v>
+      </c>
+      <c r="P28">
+        <v>-50.20983745000001</v>
+      </c>
+      <c r="Q28">
+        <v>11.01016255</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.08308108550163988</v>
+      </c>
+      <c r="T28">
+        <v>1.124100671664279</v>
+      </c>
+      <c r="U28">
+        <v>0.1837</v>
+      </c>
+      <c r="V28">
+        <v>0.01921759956624313</v>
+      </c>
+      <c r="W28">
+        <v>0.1801697269596811</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.1281173304416209</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.1100681322807306</v>
+      </c>
+      <c r="C29">
+        <v>523.8146311266532</v>
+      </c>
+      <c r="D29">
+        <v>790.4096311266533</v>
+      </c>
+      <c r="E29">
+        <v>-94.70499999999998</v>
+      </c>
+      <c r="F29">
+        <v>382.995</v>
+      </c>
+      <c r="G29">
+        <v>116.4</v>
+      </c>
+      <c r="H29">
+        <v>940.8</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K29">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L29">
+        <v>8.68</v>
+      </c>
+      <c r="M29">
+        <v>70.35618150000001</v>
+      </c>
+      <c r="N29">
+        <v>-61.67618150000001</v>
+      </c>
+      <c r="O29">
+        <v>-9.251427225</v>
+      </c>
+      <c r="P29">
+        <v>-52.42475427500001</v>
+      </c>
+      <c r="Q29">
+        <v>8.795245725000001</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.08409178530303221</v>
+      </c>
+      <c r="T29">
+        <v>1.139499311002146</v>
+      </c>
+      <c r="U29">
+        <v>0.1837</v>
+      </c>
+      <c r="V29">
+        <v>0.01850583661934524</v>
+      </c>
+      <c r="W29">
+        <v>0.1803004778130263</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.1233722441289682</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.1118121322807306</v>
+      </c>
+      <c r="C30">
+        <v>496.1826920569447</v>
+      </c>
+      <c r="D30">
+        <v>776.9626920569448</v>
+      </c>
+      <c r="E30">
+        <v>-80.51999999999992</v>
+      </c>
+      <c r="F30">
+        <v>397.1800000000001</v>
+      </c>
+      <c r="G30">
+        <v>116.4</v>
+      </c>
+      <c r="H30">
+        <v>940.8</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K30">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L30">
+        <v>8.68</v>
+      </c>
+      <c r="M30">
+        <v>72.96196600000002</v>
+      </c>
+      <c r="N30">
+        <v>-64.28196600000001</v>
+      </c>
+      <c r="O30">
+        <v>-9.642294900000001</v>
+      </c>
+      <c r="P30">
+        <v>-54.63967110000001</v>
+      </c>
+      <c r="Q30">
+        <v>6.580328899999998</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.08513056009890765</v>
+      </c>
+      <c r="T30">
+        <v>1.15532569032162</v>
+      </c>
+      <c r="U30">
+        <v>0.1837</v>
+      </c>
+      <c r="V30">
+        <v>0.01784491388294004</v>
+      </c>
+      <c r="W30">
+        <v>0.1804218893197039</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.1189660925529338</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.1135561322807306</v>
+      </c>
+      <c r="C31">
+        <v>469.0006346627702</v>
+      </c>
+      <c r="D31">
+        <v>763.9656346627702</v>
+      </c>
+      <c r="E31">
+        <v>-66.33500000000004</v>
+      </c>
+      <c r="F31">
+        <v>411.365</v>
+      </c>
+      <c r="G31">
+        <v>116.4</v>
+      </c>
+      <c r="H31">
+        <v>940.8</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K31">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L31">
+        <v>8.68</v>
+      </c>
+      <c r="M31">
+        <v>75.56775049999999</v>
+      </c>
+      <c r="N31">
+        <v>-66.88775049999998</v>
+      </c>
+      <c r="O31">
+        <v>-10.033162575</v>
+      </c>
+      <c r="P31">
+        <v>-56.85458792499998</v>
+      </c>
+      <c r="Q31">
+        <v>4.365412075000023</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.08619859615663876</v>
+      </c>
+      <c r="T31">
+        <v>1.171597883143051</v>
+      </c>
+      <c r="U31">
+        <v>0.1837</v>
+      </c>
+      <c r="V31">
+        <v>0.01722957202490764</v>
+      </c>
+      <c r="W31">
+        <v>0.1805349276190245</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.1148638134993843</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.1153001322807306</v>
+      </c>
+      <c r="C32">
+        <v>442.2462534914028</v>
+      </c>
+      <c r="D32">
+        <v>751.3962534914028</v>
+      </c>
+      <c r="E32">
+        <v>-52.14999999999998</v>
+      </c>
+      <c r="F32">
+        <v>425.55</v>
+      </c>
+      <c r="G32">
+        <v>116.4</v>
+      </c>
+      <c r="H32">
+        <v>940.8</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K32">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L32">
+        <v>8.68</v>
+      </c>
+      <c r="M32">
+        <v>78.173535</v>
+      </c>
+      <c r="N32">
+        <v>-69.49353500000001</v>
+      </c>
+      <c r="O32">
+        <v>-10.42403025</v>
+      </c>
+      <c r="P32">
+        <v>-59.06950475000001</v>
+      </c>
+      <c r="Q32">
+        <v>2.150495249999999</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.08729714753030503</v>
+      </c>
+      <c r="T32">
+        <v>1.188334995759381</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>0.01665525295741071</v>
+      </c>
+      <c r="W32">
+        <v>0.1806404300317237</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.1110350197160713</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1170441322807306</v>
+      </c>
+      <c r="C33">
+        <v>415.8987808040307</v>
+      </c>
+      <c r="D33">
+        <v>739.2337808040307</v>
+      </c>
+      <c r="E33">
+        <v>-37.96499999999997</v>
+      </c>
+      <c r="F33">
+        <v>439.735</v>
+      </c>
+      <c r="G33">
+        <v>116.4</v>
+      </c>
+      <c r="H33">
+        <v>940.8</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K33">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L33">
+        <v>8.68</v>
+      </c>
+      <c r="M33">
+        <v>80.7793195</v>
+      </c>
+      <c r="N33">
+        <v>-72.09931950000001</v>
+      </c>
+      <c r="O33">
+        <v>-10.814897925</v>
+      </c>
+      <c r="P33">
+        <v>-61.28442157500001</v>
+      </c>
+      <c r="Q33">
+        <v>-0.06442157500000434</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.08842754097277321</v>
+      </c>
+      <c r="T33">
+        <v>1.205557242074734</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>0.01611798673297811</v>
+      </c>
+      <c r="W33">
+        <v>0.1807391258371519</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.1074532448865206</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1187881322807306</v>
+      </c>
+      <c r="C34">
+        <v>389.9387720714253</v>
+      </c>
+      <c r="D34">
+        <v>727.4587720714253</v>
+      </c>
+      <c r="E34">
+        <v>-23.77999999999997</v>
+      </c>
+      <c r="F34">
+        <v>453.92</v>
+      </c>
+      <c r="G34">
+        <v>116.4</v>
+      </c>
+      <c r="H34">
+        <v>940.8</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K34">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L34">
+        <v>8.68</v>
+      </c>
+      <c r="M34">
+        <v>83.385104</v>
+      </c>
+      <c r="N34">
+        <v>-74.70510400000001</v>
+      </c>
+      <c r="O34">
+        <v>-11.2057656</v>
+      </c>
+      <c r="P34">
+        <v>-63.49933840000001</v>
+      </c>
+      <c r="Q34">
+        <v>-2.2793384</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.08959118128119635</v>
+      </c>
+      <c r="T34">
+        <v>1.223286025046421</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>0.01561429964757254</v>
+      </c>
+      <c r="W34">
+        <v>0.1808316531547409</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.1040953309838168</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1205321322807306</v>
+      </c>
+      <c r="C35">
+        <v>364.3480022414394</v>
+      </c>
+      <c r="D35">
+        <v>716.0530022414395</v>
+      </c>
+      <c r="E35">
+        <v>-9.59499999999997</v>
+      </c>
+      <c r="F35">
+        <v>468.105</v>
+      </c>
+      <c r="G35">
+        <v>116.4</v>
+      </c>
+      <c r="H35">
+        <v>940.8</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K35">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L35">
+        <v>8.68</v>
+      </c>
+      <c r="M35">
+        <v>85.99088850000001</v>
+      </c>
+      <c r="N35">
+        <v>-77.3108885</v>
+      </c>
+      <c r="O35">
+        <v>-11.596633275</v>
+      </c>
+      <c r="P35">
+        <v>-65.714255225</v>
+      </c>
+      <c r="Q35">
+        <v>-4.494255224999996</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.0907895571212142</v>
+      </c>
+      <c r="T35">
+        <v>1.241544025420248</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>0.01514113905219155</v>
+      </c>
+      <c r="W35">
+        <v>0.1809185727561124</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.1009409270146104</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1222761322807306</v>
+      </c>
+      <c r="C36">
+        <v>339.109371614344</v>
+      </c>
+      <c r="D36">
+        <v>704.999371614344</v>
+      </c>
+      <c r="E36">
+        <v>4.590000000000032</v>
+      </c>
+      <c r="F36">
+        <v>482.29</v>
+      </c>
+      <c r="G36">
+        <v>116.4</v>
+      </c>
+      <c r="H36">
+        <v>940.8</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K36">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L36">
+        <v>8.68</v>
+      </c>
+      <c r="M36">
+        <v>88.59667300000001</v>
+      </c>
+      <c r="N36">
+        <v>-79.916673</v>
+      </c>
+      <c r="O36">
+        <v>-11.98750095</v>
+      </c>
+      <c r="P36">
+        <v>-67.92917205000001</v>
+      </c>
+      <c r="Q36">
+        <v>-6.709172049999999</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.09202424738062655</v>
+      </c>
+      <c r="T36">
+        <v>1.260355298532676</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>0.01469581143300945</v>
+      </c>
+      <c r="W36">
+        <v>0.1810003794397562</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.0979720762200631</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1240201322807306</v>
+      </c>
+      <c r="C37">
+        <v>314.2068203035882</v>
+      </c>
+      <c r="D37">
+        <v>694.2818203035882</v>
+      </c>
+      <c r="E37">
+        <v>18.77500000000003</v>
+      </c>
+      <c r="F37">
+        <v>496.475</v>
+      </c>
+      <c r="G37">
+        <v>116.4</v>
+      </c>
+      <c r="H37">
+        <v>940.8</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K37">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L37">
+        <v>8.68</v>
+      </c>
+      <c r="M37">
+        <v>91.20245750000001</v>
+      </c>
+      <c r="N37">
+        <v>-82.5224575</v>
+      </c>
+      <c r="O37">
+        <v>-12.378368625</v>
+      </c>
+      <c r="P37">
+        <v>-70.14408887499999</v>
+      </c>
+      <c r="Q37">
+        <v>-8.924088874999988</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.09329692810955927</v>
+      </c>
+      <c r="T37">
+        <v>1.279745380048564</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>0.01427593110635204</v>
+      </c>
+      <c r="W37">
+        <v>0.1810775114557631</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.09517287404234698</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1257641322807306</v>
+      </c>
+      <c r="C38">
+        <v>289.6252503820367</v>
+      </c>
+      <c r="D38">
+        <v>683.8852503820367</v>
+      </c>
+      <c r="E38">
+        <v>32.95999999999998</v>
+      </c>
+      <c r="F38">
+        <v>510.66</v>
+      </c>
+      <c r="G38">
+        <v>116.4</v>
+      </c>
+      <c r="H38">
+        <v>940.8</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K38">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L38">
+        <v>8.68</v>
+      </c>
+      <c r="M38">
+        <v>93.80824199999999</v>
+      </c>
+      <c r="N38">
+        <v>-85.128242</v>
+      </c>
+      <c r="O38">
+        <v>-12.7692363</v>
+      </c>
+      <c r="P38">
+        <v>-72.3590057</v>
+      </c>
+      <c r="Q38">
+        <v>-11.13900569999999</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.09460938011127111</v>
+      </c>
+      <c r="T38">
+        <v>1.299741401611822</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>0.01387937746450893</v>
+      </c>
+      <c r="W38">
+        <v>0.1811503583597697</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.09252918309672609</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1275081322807306</v>
+      </c>
+      <c r="C39">
+        <v>265.3504549199633</v>
+      </c>
+      <c r="D39">
+        <v>673.7954549199634</v>
+      </c>
+      <c r="E39">
+        <v>47.14500000000004</v>
+      </c>
+      <c r="F39">
+        <v>524.845</v>
+      </c>
+      <c r="G39">
+        <v>116.4</v>
+      </c>
+      <c r="H39">
+        <v>940.8</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K39">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L39">
+        <v>8.68</v>
+      </c>
+      <c r="M39">
+        <v>96.41402650000001</v>
+      </c>
+      <c r="N39">
+        <v>-87.7340265</v>
+      </c>
+      <c r="O39">
+        <v>-13.160103975</v>
+      </c>
+      <c r="P39">
+        <v>-74.573922525</v>
+      </c>
+      <c r="Q39">
+        <v>-13.35392252499999</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.09596349725589447</v>
+      </c>
+      <c r="T39">
+        <v>1.320372217510423</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>0.01350425915465733</v>
+      </c>
+      <c r="W39">
+        <v>0.1812192675932894</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.09002839436438226</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1292521322807306</v>
+      </c>
+      <c r="C40">
+        <v>241.3690532134036</v>
+      </c>
+      <c r="D40">
+        <v>663.9990532134036</v>
+      </c>
+      <c r="E40">
+        <v>61.32999999999998</v>
+      </c>
+      <c r="F40">
+        <v>539.03</v>
+      </c>
+      <c r="G40">
+        <v>116.4</v>
+      </c>
+      <c r="H40">
+        <v>940.8</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K40">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L40">
+        <v>8.68</v>
+      </c>
+      <c r="M40">
+        <v>99.01981099999999</v>
+      </c>
+      <c r="N40">
+        <v>-90.339811</v>
+      </c>
+      <c r="O40">
+        <v>-13.55097165</v>
+      </c>
+      <c r="P40">
+        <v>-76.78883935</v>
+      </c>
+      <c r="Q40">
+        <v>-15.56883935</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.09736129559873148</v>
+      </c>
+      <c r="T40">
+        <v>1.341668543599301</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>0.0131488839137453</v>
+      </c>
+      <c r="W40">
+        <v>0.181284550025045</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.08765922609163523</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1309961322807306</v>
+      </c>
+      <c r="C41">
+        <v>217.6684315818726</v>
+      </c>
+      <c r="D41">
+        <v>654.4834315818727</v>
+      </c>
+      <c r="E41">
+        <v>75.51500000000004</v>
+      </c>
+      <c r="F41">
+        <v>553.215</v>
+      </c>
+      <c r="G41">
+        <v>116.4</v>
+      </c>
+      <c r="H41">
+        <v>940.8</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K41">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L41">
+        <v>8.68</v>
+      </c>
+      <c r="M41">
+        <v>101.6255955</v>
+      </c>
+      <c r="N41">
+        <v>-92.9455955</v>
+      </c>
+      <c r="O41">
+        <v>-13.941839325</v>
+      </c>
+      <c r="P41">
+        <v>-79.00375617499999</v>
+      </c>
+      <c r="Q41">
+        <v>-17.78375617499999</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.098804923395432</v>
+      </c>
+      <c r="T41">
+        <v>1.363663109887814</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>0.01281173304416209</v>
+      </c>
+      <c r="W41">
+        <v>0.1813464846397874</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.08541155362774733</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1327401322807306</v>
+      </c>
+      <c r="C42">
+        <v>194.2366891846518</v>
+      </c>
+      <c r="D42">
+        <v>645.2366891846518</v>
+      </c>
+      <c r="E42">
+        <v>89.69999999999999</v>
+      </c>
+      <c r="F42">
+        <v>567.4</v>
+      </c>
+      <c r="G42">
+        <v>116.4</v>
+      </c>
+      <c r="H42">
+        <v>940.8</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K42">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L42">
+        <v>8.68</v>
+      </c>
+      <c r="M42">
+        <v>104.23138</v>
+      </c>
+      <c r="N42">
+        <v>-95.55137999999999</v>
+      </c>
+      <c r="O42">
+        <v>-14.332707</v>
+      </c>
+      <c r="P42">
+        <v>-81.218673</v>
+      </c>
+      <c r="Q42">
+        <v>-19.99867299999999</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1002966721186892</v>
+      </c>
+      <c r="T42">
+        <v>1.386390828385944</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>0.01249143971805803</v>
+      </c>
+      <c r="W42">
+        <v>0.1814053225237927</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.08327626478705363</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1344841322807306</v>
+      </c>
+      <c r="C43">
+        <v>171.0625883662309</v>
+      </c>
+      <c r="D43">
+        <v>636.247588366231</v>
+      </c>
+      <c r="E43">
+        <v>103.885</v>
+      </c>
+      <c r="F43">
+        <v>581.585</v>
+      </c>
+      <c r="G43">
+        <v>116.4</v>
+      </c>
+      <c r="H43">
+        <v>940.8</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K43">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L43">
+        <v>8.68</v>
+      </c>
+      <c r="M43">
+        <v>106.8371645</v>
+      </c>
+      <c r="N43">
+        <v>-98.15716450000002</v>
+      </c>
+      <c r="O43">
+        <v>-14.723574675</v>
+      </c>
+      <c r="P43">
+        <v>-83.43358982500001</v>
+      </c>
+      <c r="Q43">
+        <v>-22.21358982500001</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1018389885952771</v>
+      </c>
+      <c r="T43">
+        <v>1.409888978019604</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>0.01218677045664198</v>
+      </c>
+      <c r="W43">
+        <v>0.1814612902671149</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.08124513637761321</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1362281322807306</v>
+      </c>
+      <c r="C44">
+        <v>148.1355090952893</v>
+      </c>
+      <c r="D44">
+        <v>627.5055090952893</v>
+      </c>
+      <c r="E44">
+        <v>118.07</v>
+      </c>
+      <c r="F44">
+        <v>595.77</v>
+      </c>
+      <c r="G44">
+        <v>116.4</v>
+      </c>
+      <c r="H44">
+        <v>940.8</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K44">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L44">
+        <v>8.68</v>
+      </c>
+      <c r="M44">
+        <v>109.442949</v>
+      </c>
+      <c r="N44">
+        <v>-100.762949</v>
+      </c>
+      <c r="O44">
+        <v>-15.11444235</v>
+      </c>
+      <c r="P44">
+        <v>-85.64850665</v>
+      </c>
+      <c r="Q44">
+        <v>-24.42850665</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.103434488398644</v>
+      </c>
+      <c r="T44">
+        <v>1.434197408675114</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0.01189660925529337</v>
+      </c>
+      <c r="W44">
+        <v>0.1815145928798026</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.07931072836862252</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1379721322807306</v>
+      </c>
+      <c r="C45">
+        <v>125.4454071088347</v>
+      </c>
+      <c r="D45">
+        <v>619.0004071088348</v>
+      </c>
+      <c r="E45">
+        <v>132.2550000000001</v>
+      </c>
+      <c r="F45">
+        <v>609.955</v>
+      </c>
+      <c r="G45">
+        <v>116.4</v>
+      </c>
+      <c r="H45">
+        <v>940.8</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K45">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L45">
+        <v>8.68</v>
+      </c>
+      <c r="M45">
+        <v>112.0487335</v>
+      </c>
+      <c r="N45">
+        <v>-103.3687335</v>
+      </c>
+      <c r="O45">
+        <v>-15.505310025</v>
+      </c>
+      <c r="P45">
+        <v>-87.86342347500002</v>
+      </c>
+      <c r="Q45">
+        <v>-26.64342347500001</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1050859706512518</v>
+      </c>
+      <c r="T45">
+        <v>1.459358766722046</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0.01161994392377492</v>
+      </c>
+      <c r="W45">
+        <v>0.1815654163012025</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.07746629282516604</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1397161322807306</v>
+      </c>
+      <c r="C46">
+        <v>102.9827754146667</v>
+      </c>
+      <c r="D46">
+        <v>610.7227754146667</v>
+      </c>
+      <c r="E46">
+        <v>146.44</v>
+      </c>
+      <c r="F46">
+        <v>624.14</v>
+      </c>
+      <c r="G46">
+        <v>116.4</v>
+      </c>
+      <c r="H46">
+        <v>940.8</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K46">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L46">
+        <v>8.68</v>
+      </c>
+      <c r="M46">
+        <v>114.654518</v>
+      </c>
+      <c r="N46">
+        <v>-105.974518</v>
+      </c>
+      <c r="O46">
+        <v>-15.8961777</v>
+      </c>
+      <c r="P46">
+        <v>-90.07834029999999</v>
+      </c>
+      <c r="Q46">
+        <v>-28.85834029999999</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1067964344128813</v>
+      </c>
+      <c r="T46">
+        <v>1.485418744699226</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0.01135585428914367</v>
+      </c>
+      <c r="W46">
+        <v>0.1816139295670843</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.07570569526095783</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1414601322807306</v>
+      </c>
+      <c r="C47">
+        <v>80.73860884194596</v>
+      </c>
+      <c r="D47">
+        <v>602.663608841946</v>
+      </c>
+      <c r="E47">
+        <v>160.6250000000001</v>
+      </c>
+      <c r="F47">
+        <v>638.325</v>
+      </c>
+      <c r="G47">
+        <v>116.4</v>
+      </c>
+      <c r="H47">
+        <v>940.8</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K47">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L47">
+        <v>8.68</v>
+      </c>
+      <c r="M47">
+        <v>117.2603025</v>
+      </c>
+      <c r="N47">
+        <v>-108.5803025</v>
+      </c>
+      <c r="O47">
+        <v>-16.287045375</v>
+      </c>
+      <c r="P47">
+        <v>-92.29325712500001</v>
+      </c>
+      <c r="Q47">
+        <v>-31.073257125</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1085690968567518</v>
+      </c>
+      <c r="T47">
+        <v>1.512426358239212</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0.01110350197160714</v>
+      </c>
+      <c r="W47">
+        <v>0.1816602866878158</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.07402334647738085</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1432041322807306</v>
+      </c>
+      <c r="C48">
+        <v>58.70437136197916</v>
+      </c>
+      <c r="D48">
+        <v>594.8143713619792</v>
+      </c>
+      <c r="E48">
+        <v>174.81</v>
+      </c>
+      <c r="F48">
+        <v>652.51</v>
+      </c>
+      <c r="G48">
+        <v>116.4</v>
+      </c>
+      <c r="H48">
+        <v>940.8</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K48">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L48">
+        <v>8.68</v>
+      </c>
+      <c r="M48">
+        <v>119.866087</v>
+      </c>
+      <c r="N48">
+        <v>-111.186087</v>
+      </c>
+      <c r="O48">
+        <v>-16.67791305</v>
+      </c>
+      <c r="P48">
+        <v>-94.50817394999999</v>
+      </c>
+      <c r="Q48">
+        <v>-33.28817394999998</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1104074134652102</v>
+      </c>
+      <c r="T48">
+        <v>1.54043425376216</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0.01086212149396351</v>
+      </c>
+      <c r="W48">
+        <v>0.1817046282815589</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.07241414329309015</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1449481322807306</v>
+      </c>
+      <c r="C49">
+        <v>36.87196592989801</v>
+      </c>
+      <c r="D49">
+        <v>587.1669659298981</v>
+      </c>
+      <c r="E49">
+        <v>188.9950000000001</v>
+      </c>
+      <c r="F49">
+        <v>666.6950000000001</v>
+      </c>
+      <c r="G49">
+        <v>116.4</v>
+      </c>
+      <c r="H49">
+        <v>940.8</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K49">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L49">
+        <v>8.68</v>
+      </c>
+      <c r="M49">
+        <v>122.4718715</v>
+      </c>
+      <c r="N49">
+        <v>-113.7918715</v>
+      </c>
+      <c r="O49">
+        <v>-17.068780725</v>
+      </c>
+      <c r="P49">
+        <v>-96.72309077500002</v>
+      </c>
+      <c r="Q49">
+        <v>-35.50309077500001</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1123151005117236</v>
+      </c>
+      <c r="T49">
+        <v>1.569499051002956</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0.01063101252600684</v>
+      </c>
+      <c r="W49">
+        <v>0.1817470829989725</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.07087341684004556</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1466921322807306</v>
+      </c>
+      <c r="C50">
+        <v>15.23370662324896</v>
+      </c>
+      <c r="D50">
+        <v>579.713706623249</v>
+      </c>
+      <c r="E50">
+        <v>203.18</v>
+      </c>
+      <c r="F50">
+        <v>680.88</v>
+      </c>
+      <c r="G50">
+        <v>116.4</v>
+      </c>
+      <c r="H50">
+        <v>940.8</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K50">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L50">
+        <v>8.68</v>
+      </c>
+      <c r="M50">
+        <v>125.077656</v>
+      </c>
+      <c r="N50">
+        <v>-116.397656</v>
+      </c>
+      <c r="O50">
+        <v>-17.4596484</v>
+      </c>
+      <c r="P50">
+        <v>-98.93800760000001</v>
+      </c>
+      <c r="Q50">
+        <v>-37.7180076</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1142961601369491</v>
+      </c>
+      <c r="T50">
+        <v>1.599681725060704</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0.0104095330983817</v>
+      </c>
+      <c r="W50">
+        <v>0.1817877687698273</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.06939688732254456</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1484361322807306</v>
+      </c>
+      <c r="C51">
+        <v>-6.217707124051572</v>
+      </c>
+      <c r="D51">
+        <v>572.4472928759484</v>
+      </c>
+      <c r="E51">
+        <v>217.365</v>
+      </c>
+      <c r="F51">
+        <v>695.0649999999999</v>
+      </c>
+      <c r="G51">
+        <v>116.4</v>
+      </c>
+      <c r="H51">
+        <v>940.8</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K51">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L51">
+        <v>8.68</v>
+      </c>
+      <c r="M51">
+        <v>127.6834405</v>
+      </c>
+      <c r="N51">
+        <v>-119.0034405</v>
+      </c>
+      <c r="O51">
+        <v>-17.850516075</v>
+      </c>
+      <c r="P51">
+        <v>-101.152924425</v>
+      </c>
+      <c r="Q51">
+        <v>-39.93292442499997</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1163549083749285</v>
+      </c>
+      <c r="T51">
+        <v>1.631048033395228</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0.01019709364739432</v>
+      </c>
+      <c r="W51">
+        <v>0.1818267938969737</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.06798062431596219</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1501801322807306</v>
+      </c>
+      <c r="C52">
+        <v>-27.48921437396143</v>
+      </c>
+      <c r="D52">
+        <v>565.3607856260386</v>
+      </c>
+      <c r="E52">
+        <v>231.55</v>
+      </c>
+      <c r="F52">
+        <v>709.25</v>
+      </c>
+      <c r="G52">
+        <v>116.4</v>
+      </c>
+      <c r="H52">
+        <v>940.8</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K52">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L52">
+        <v>8.68</v>
+      </c>
+      <c r="M52">
+        <v>130.289225</v>
+      </c>
+      <c r="N52">
+        <v>-121.609225</v>
+      </c>
+      <c r="O52">
+        <v>-18.24138375</v>
+      </c>
+      <c r="P52">
+        <v>-103.36784125</v>
+      </c>
+      <c r="Q52">
+        <v>-42.14784124999998</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.118496006542427</v>
+      </c>
+      <c r="T52">
+        <v>1.663668994063133</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0.009993151774446429</v>
+      </c>
+      <c r="W52">
+        <v>0.1818642580190342</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.06662101182964286</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1519241322807306</v>
+      </c>
+      <c r="C53">
+        <v>-48.58741478657532</v>
+      </c>
+      <c r="D53">
+        <v>558.4475852134248</v>
+      </c>
+      <c r="E53">
+        <v>245.7350000000001</v>
+      </c>
+      <c r="F53">
+        <v>723.4350000000001</v>
+      </c>
+      <c r="G53">
+        <v>116.4</v>
+      </c>
+      <c r="H53">
+        <v>940.8</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K53">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L53">
+        <v>8.68</v>
+      </c>
+      <c r="M53">
+        <v>132.8950095</v>
+      </c>
+      <c r="N53">
+        <v>-124.2150095</v>
+      </c>
+      <c r="O53">
+        <v>-18.632251425</v>
+      </c>
+      <c r="P53">
+        <v>-105.582758075</v>
+      </c>
+      <c r="Q53">
+        <v>-44.36275807500001</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1207244964718643</v>
+      </c>
+      <c r="T53">
+        <v>1.697621422513401</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0.009797207622006301</v>
+      </c>
+      <c r="W53">
+        <v>0.1819002529598374</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.06531471748004203</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1536681322807306</v>
+      </c>
+      <c r="C54">
+        <v>-69.51858912038426</v>
+      </c>
+      <c r="D54">
+        <v>551.7014108796158</v>
+      </c>
+      <c r="E54">
+        <v>259.92</v>
+      </c>
+      <c r="F54">
+        <v>737.62</v>
+      </c>
+      <c r="G54">
+        <v>116.4</v>
+      </c>
+      <c r="H54">
+        <v>940.8</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K54">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L54">
+        <v>8.68</v>
+      </c>
+      <c r="M54">
+        <v>135.500794</v>
+      </c>
+      <c r="N54">
+        <v>-126.820794</v>
+      </c>
+      <c r="O54">
+        <v>-19.0231191</v>
+      </c>
+      <c r="P54">
+        <v>-107.7976749</v>
+      </c>
+      <c r="Q54">
+        <v>-46.5776749</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1230458401483615</v>
+      </c>
+      <c r="T54">
+        <v>1.73298853548243</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0.009608799783121564</v>
+      </c>
+      <c r="W54">
+        <v>0.1819348634798406</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.0640586652208105</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1554121322807306</v>
+      </c>
+      <c r="C55">
+        <v>-90.28871826438569</v>
+      </c>
+      <c r="D55">
+        <v>545.1162817356144</v>
+      </c>
+      <c r="E55">
+        <v>274.1050000000001</v>
+      </c>
+      <c r="F55">
+        <v>751.8050000000001</v>
+      </c>
+      <c r="G55">
+        <v>116.4</v>
+      </c>
+      <c r="H55">
+        <v>940.8</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K55">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L55">
+        <v>8.68</v>
+      </c>
+      <c r="M55">
+        <v>138.1065785</v>
+      </c>
+      <c r="N55">
+        <v>-129.4265785</v>
+      </c>
+      <c r="O55">
+        <v>-19.413986775</v>
+      </c>
+      <c r="P55">
+        <v>-110.012591725</v>
+      </c>
+      <c r="Q55">
+        <v>-48.792591725</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1254659644068372</v>
+      </c>
+      <c r="T55">
+        <v>1.769860631982056</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0.009427501674006062</v>
+      </c>
+      <c r="W55">
+        <v>0.1819681679424851</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.06285001116004052</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1571561322807306</v>
+      </c>
+      <c r="C56">
+        <v>-110.9035009232605</v>
+      </c>
+      <c r="D56">
+        <v>538.6864990767396</v>
+      </c>
+      <c r="E56">
+        <v>288.29</v>
+      </c>
+      <c r="F56">
+        <v>765.99</v>
+      </c>
+      <c r="G56">
+        <v>116.4</v>
+      </c>
+      <c r="H56">
+        <v>940.8</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K56">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L56">
+        <v>8.68</v>
+      </c>
+      <c r="M56">
+        <v>140.712363</v>
+      </c>
+      <c r="N56">
+        <v>-132.032363</v>
+      </c>
+      <c r="O56">
+        <v>-19.80485445</v>
+      </c>
+      <c r="P56">
+        <v>-112.22750855</v>
+      </c>
+      <c r="Q56">
+        <v>-51.00750855</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1279913114591598</v>
+      </c>
+      <c r="T56">
+        <v>1.808335863112101</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0.009252918309672618</v>
+      </c>
+      <c r="W56">
+        <v>0.1820002389065132</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.06168612206448421</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1589001322807306</v>
+      </c>
+      <c r="C57">
+        <v>-131.3683700655341</v>
+      </c>
+      <c r="D57">
+        <v>532.406629934466</v>
+      </c>
+      <c r="E57">
+        <v>302.4750000000001</v>
+      </c>
+      <c r="F57">
+        <v>780.1750000000001</v>
+      </c>
+      <c r="G57">
+        <v>116.4</v>
+      </c>
+      <c r="H57">
+        <v>940.8</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K57">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L57">
+        <v>8.68</v>
+      </c>
+      <c r="M57">
+        <v>143.3181475</v>
+      </c>
+      <c r="N57">
+        <v>-134.6381475</v>
+      </c>
+      <c r="O57">
+        <v>-20.195722125</v>
+      </c>
+      <c r="P57">
+        <v>-114.442425375</v>
+      </c>
+      <c r="Q57">
+        <v>-53.22242537499999</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1306288961582523</v>
+      </c>
+      <c r="T57">
+        <v>1.848521104514592</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.009084683431314935</v>
+      </c>
+      <c r="W57">
+        <v>0.1820311436536674</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.06056455620876633</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1606441322807306</v>
+      </c>
+      <c r="C58">
+        <v>-151.6885082345079</v>
+      </c>
+      <c r="D58">
+        <v>526.2714917654922</v>
+      </c>
+      <c r="E58">
+        <v>316.6600000000001</v>
+      </c>
+      <c r="F58">
+        <v>794.3600000000001</v>
+      </c>
+      <c r="G58">
+        <v>116.4</v>
+      </c>
+      <c r="H58">
+        <v>940.8</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K58">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L58">
+        <v>8.68</v>
+      </c>
+      <c r="M58">
+        <v>145.923932</v>
+      </c>
+      <c r="N58">
+        <v>-137.243932</v>
+      </c>
+      <c r="O58">
+        <v>-20.5865898</v>
+      </c>
+      <c r="P58">
+        <v>-116.6573422</v>
+      </c>
+      <c r="Q58">
+        <v>-55.43734220000002</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1333863710709398</v>
+      </c>
+      <c r="T58">
+        <v>1.890532947799015</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.008922456941470022</v>
+      </c>
+      <c r="W58">
+        <v>0.182060944659852</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.05948304627646683</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1623881322807306</v>
+      </c>
+      <c r="C59">
+        <v>-171.8688618126412</v>
+      </c>
+      <c r="D59">
+        <v>520.2761381873589</v>
+      </c>
+      <c r="E59">
+        <v>330.8450000000001</v>
+      </c>
+      <c r="F59">
+        <v>808.5450000000001</v>
+      </c>
+      <c r="G59">
+        <v>116.4</v>
+      </c>
+      <c r="H59">
+        <v>940.8</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K59">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L59">
+        <v>8.68</v>
+      </c>
+      <c r="M59">
+        <v>148.5297165</v>
+      </c>
+      <c r="N59">
+        <v>-139.8497165</v>
+      </c>
+      <c r="O59">
+        <v>-20.977457475</v>
+      </c>
+      <c r="P59">
+        <v>-118.872259025</v>
+      </c>
+      <c r="Q59">
+        <v>-57.652259025</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1362721006307291</v>
+      </c>
+      <c r="T59">
+        <v>1.934498830305969</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.008765922609163533</v>
+      </c>
+      <c r="W59">
+        <v>0.1820897000166967</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.05843948406109023</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1641321322807306</v>
+      </c>
+      <c r="C60">
+        <v>-191.9141543219089</v>
+      </c>
+      <c r="D60">
+        <v>514.415845678091</v>
+      </c>
+      <c r="E60">
+        <v>345.0299999999999</v>
+      </c>
+      <c r="F60">
+        <v>822.7299999999999</v>
+      </c>
+      <c r="G60">
+        <v>116.4</v>
+      </c>
+      <c r="H60">
+        <v>940.8</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K60">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L60">
+        <v>8.68</v>
+      </c>
+      <c r="M60">
+        <v>151.135501</v>
+      </c>
+      <c r="N60">
+        <v>-142.455501</v>
+      </c>
+      <c r="O60">
+        <v>-21.36832514999999</v>
+      </c>
+      <c r="P60">
+        <v>-121.08717585</v>
+      </c>
+      <c r="Q60">
+        <v>-59.86717584999997</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1392952458838417</v>
+      </c>
+      <c r="T60">
+        <v>1.980558326265634</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.008614786012453819</v>
+      </c>
+      <c r="W60">
+        <v>0.1821174638095122</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.05743190674969212</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1658761322807306</v>
+      </c>
+      <c r="C61">
+        <v>-211.8288988352941</v>
+      </c>
+      <c r="D61">
+        <v>508.6861011647058</v>
+      </c>
+      <c r="E61">
+        <v>359.215</v>
+      </c>
+      <c r="F61">
+        <v>836.915</v>
+      </c>
+      <c r="G61">
+        <v>116.4</v>
+      </c>
+      <c r="H61">
+        <v>940.8</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K61">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L61">
+        <v>8.68</v>
+      </c>
+      <c r="M61">
+        <v>153.7412855</v>
+      </c>
+      <c r="N61">
+        <v>-145.0612855</v>
+      </c>
+      <c r="O61">
+        <v>-21.759192825</v>
+      </c>
+      <c r="P61">
+        <v>-123.302092675</v>
+      </c>
+      <c r="Q61">
+        <v>-62.08209267499999</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1424658616371061</v>
+      </c>
+      <c r="T61">
+        <v>2.028864626906259</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.008468772690208837</v>
+      </c>
+      <c r="W61">
+        <v>0.1821442864568086</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.05645848460139224</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1676201322807306</v>
+      </c>
+      <c r="C62">
+        <v>-231.6174095679545</v>
+      </c>
+      <c r="D62">
+        <v>503.0825904320455</v>
+      </c>
+      <c r="E62">
+        <v>373.4</v>
+      </c>
+      <c r="F62">
+        <v>851.1</v>
+      </c>
+      <c r="G62">
+        <v>116.4</v>
+      </c>
+      <c r="H62">
+        <v>940.8</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K62">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L62">
+        <v>8.68</v>
+      </c>
+      <c r="M62">
+        <v>156.34707</v>
+      </c>
+      <c r="N62">
+        <v>-147.66707</v>
+      </c>
+      <c r="O62">
+        <v>-22.1500605</v>
+      </c>
+      <c r="P62">
+        <v>-125.5170095</v>
+      </c>
+      <c r="Q62">
+        <v>-64.2970095</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1457950081780338</v>
+      </c>
+      <c r="T62">
+        <v>2.079586242578916</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.008327626478705356</v>
+      </c>
+      <c r="W62">
+        <v>0.1821702150158618</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.05551750985803572</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1693641322807306</v>
+      </c>
+      <c r="C63">
+        <v>-251.2838127106315</v>
+      </c>
+      <c r="D63">
+        <v>497.6011872893685</v>
+      </c>
+      <c r="E63">
+        <v>387.585</v>
+      </c>
+      <c r="F63">
+        <v>865.285</v>
+      </c>
+      <c r="G63">
+        <v>116.4</v>
+      </c>
+      <c r="H63">
+        <v>940.8</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K63">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L63">
+        <v>8.68</v>
+      </c>
+      <c r="M63">
+        <v>158.9528545</v>
+      </c>
+      <c r="N63">
+        <v>-150.2728545</v>
+      </c>
+      <c r="O63">
+        <v>-22.540928175</v>
+      </c>
+      <c r="P63">
+        <v>-127.731926325</v>
+      </c>
+      <c r="Q63">
+        <v>-66.51192632499999</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1492948801825988</v>
+      </c>
+      <c r="T63">
+        <v>2.132908966747606</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.008191108011841334</v>
+      </c>
+      <c r="W63">
+        <v>0.1821952934582247</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.05460738674560894</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1711081322807306</v>
+      </c>
+      <c r="C64">
+        <v>-270.8320565624737</v>
+      </c>
+      <c r="D64">
+        <v>492.2379434375264</v>
+      </c>
+      <c r="E64">
+        <v>401.77</v>
+      </c>
+      <c r="F64">
+        <v>879.47</v>
+      </c>
+      <c r="G64">
+        <v>116.4</v>
+      </c>
+      <c r="H64">
+        <v>940.8</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K64">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L64">
+        <v>8.68</v>
+      </c>
+      <c r="M64">
+        <v>161.558639</v>
+      </c>
+      <c r="N64">
+        <v>-152.878639</v>
+      </c>
+      <c r="O64">
+        <v>-22.93179585</v>
+      </c>
+      <c r="P64">
+        <v>-129.94684315</v>
+      </c>
+      <c r="Q64">
+        <v>-68.72684315000001</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1529789559768777</v>
+      </c>
+      <c r="T64">
+        <v>2.18903815008307</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.008058993366489055</v>
+      </c>
+      <c r="W64">
+        <v>0.182219562918576</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.05372662244326043</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1728521322807306</v>
+      </c>
+      <c r="C65">
+        <v>-290.2659210155613</v>
+      </c>
+      <c r="D65">
+        <v>486.9890789844387</v>
+      </c>
+      <c r="E65">
+        <v>415.955</v>
+      </c>
+      <c r="F65">
+        <v>893.655</v>
+      </c>
+      <c r="G65">
+        <v>116.4</v>
+      </c>
+      <c r="H65">
+        <v>940.8</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K65">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L65">
+        <v>8.68</v>
+      </c>
+      <c r="M65">
+        <v>164.1644235</v>
+      </c>
+      <c r="N65">
+        <v>-155.4844235</v>
+      </c>
+      <c r="O65">
+        <v>-23.322663525</v>
+      </c>
+      <c r="P65">
+        <v>-132.161759975</v>
+      </c>
+      <c r="Q65">
+        <v>-70.941759975</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1568621710032798</v>
+      </c>
+      <c r="T65">
+        <v>2.248201343328558</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.007931072836862245</v>
+      </c>
+      <c r="W65">
+        <v>0.1822430619198684</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.05287381891241505</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1745961322807306</v>
+      </c>
+      <c r="C66">
+        <v>-309.589026439023</v>
+      </c>
+      <c r="D66">
+        <v>481.850973560977</v>
+      </c>
+      <c r="E66">
+        <v>430.14</v>
+      </c>
+      <c r="F66">
+        <v>907.84</v>
+      </c>
+      <c r="G66">
+        <v>116.4</v>
+      </c>
+      <c r="H66">
+        <v>940.8</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K66">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L66">
+        <v>8.68</v>
+      </c>
+      <c r="M66">
+        <v>166.770208</v>
+      </c>
+      <c r="N66">
+        <v>-158.090208</v>
+      </c>
+      <c r="O66">
+        <v>-23.7135312</v>
+      </c>
+      <c r="P66">
+        <v>-134.3766768</v>
+      </c>
+      <c r="Q66">
+        <v>-73.15667679999999</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1609611201978153</v>
+      </c>
+      <c r="T66">
+        <v>2.31065138064324</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.007807149823786271</v>
+      </c>
+      <c r="W66">
+        <v>0.1822658265773705</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.05204766549190853</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1763401322807306</v>
+      </c>
+      <c r="C67">
+        <v>-328.804842006614</v>
+      </c>
+      <c r="D67">
+        <v>476.820157993386</v>
+      </c>
+      <c r="E67">
+        <v>444.325</v>
+      </c>
+      <c r="F67">
+        <v>922.025</v>
+      </c>
+      <c r="G67">
+        <v>116.4</v>
+      </c>
+      <c r="H67">
+        <v>940.8</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K67">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L67">
+        <v>8.68</v>
+      </c>
+      <c r="M67">
+        <v>169.3759925</v>
+      </c>
+      <c r="N67">
+        <v>-160.6959925</v>
+      </c>
+      <c r="O67">
+        <v>-24.104398875</v>
+      </c>
+      <c r="P67">
+        <v>-136.591593625</v>
+      </c>
+      <c r="Q67">
+        <v>-75.371593625</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1652942950606101</v>
+      </c>
+      <c r="T67">
+        <v>2.376669991518761</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.007687039826497252</v>
+      </c>
+      <c r="W67">
+        <v>0.1822878907838725</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.05124693217664844</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1780841322807306</v>
+      </c>
+      <c r="C68">
+        <v>-347.9166935080178</v>
+      </c>
+      <c r="D68">
+        <v>471.8933064919822</v>
+      </c>
+      <c r="E68">
+        <v>458.51</v>
+      </c>
+      <c r="F68">
+        <v>936.21</v>
+      </c>
+      <c r="G68">
+        <v>116.4</v>
+      </c>
+      <c r="H68">
+        <v>940.8</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K68">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L68">
+        <v>8.68</v>
+      </c>
+      <c r="M68">
+        <v>171.981777</v>
+      </c>
+      <c r="N68">
+        <v>-163.301777</v>
+      </c>
+      <c r="O68">
+        <v>-24.49526655</v>
+      </c>
+      <c r="P68">
+        <v>-138.80651045</v>
+      </c>
+      <c r="Q68">
+        <v>-77.58651045000002</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1698823625623927</v>
+      </c>
+      <c r="T68">
+        <v>2.446572050092843</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.007570569526095777</v>
+      </c>
+      <c r="W68">
+        <v>0.1823092863780562</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.05047046350730522</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1798281322807306</v>
+      </c>
+      <c r="C69">
+        <v>-366.9277706808283</v>
+      </c>
+      <c r="D69">
+        <v>467.0672293191718</v>
+      </c>
+      <c r="E69">
+        <v>472.6950000000001</v>
+      </c>
+      <c r="F69">
+        <v>950.3950000000001</v>
+      </c>
+      <c r="G69">
+        <v>116.4</v>
+      </c>
+      <c r="H69">
+        <v>940.8</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K69">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L69">
+        <v>8.68</v>
+      </c>
+      <c r="M69">
+        <v>174.5875615</v>
+      </c>
+      <c r="N69">
+        <v>-165.9075615</v>
+      </c>
+      <c r="O69">
+        <v>-24.886134225</v>
+      </c>
+      <c r="P69">
+        <v>-141.021427275</v>
+      </c>
+      <c r="Q69">
+        <v>-79.80142727500001</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1747484947612531</v>
+      </c>
+      <c r="T69">
+        <v>2.520710597065353</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.007457575951079423</v>
+      </c>
+      <c r="W69">
+        <v>0.1823300432977867</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.04971717300719625</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1815721322807306</v>
+      </c>
+      <c r="C70">
+        <v>-385.8411340971771</v>
+      </c>
+      <c r="D70">
+        <v>462.3388659028229</v>
+      </c>
+      <c r="E70">
+        <v>486.8800000000001</v>
+      </c>
+      <c r="F70">
+        <v>964.58</v>
+      </c>
+      <c r="G70">
+        <v>116.4</v>
+      </c>
+      <c r="H70">
+        <v>940.8</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K70">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L70">
+        <v>8.68</v>
+      </c>
+      <c r="M70">
+        <v>177.193346</v>
+      </c>
+      <c r="N70">
+        <v>-168.513346</v>
+      </c>
+      <c r="O70">
+        <v>-25.2770019</v>
+      </c>
+      <c r="P70">
+        <v>-143.2363441</v>
+      </c>
+      <c r="Q70">
+        <v>-82.0163441</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1799187602225422</v>
+      </c>
+      <c r="T70">
+        <v>2.599482803223645</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.007347905716504725</v>
+      </c>
+      <c r="W70">
+        <v>0.1823501897198781</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.04898603811003155</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1833161322807306</v>
+      </c>
+      <c r="C71">
+        <v>-404.659721636255</v>
+      </c>
+      <c r="D71">
+        <v>457.7052783637452</v>
+      </c>
+      <c r="E71">
+        <v>501.0650000000001</v>
+      </c>
+      <c r="F71">
+        <v>978.7650000000001</v>
+      </c>
+      <c r="G71">
+        <v>116.4</v>
+      </c>
+      <c r="H71">
+        <v>940.8</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K71">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L71">
+        <v>8.68</v>
+      </c>
+      <c r="M71">
+        <v>179.7991305</v>
+      </c>
+      <c r="N71">
+        <v>-171.1191305</v>
+      </c>
+      <c r="O71">
+        <v>-25.667869575</v>
+      </c>
+      <c r="P71">
+        <v>-145.451260925</v>
+      </c>
+      <c r="Q71">
+        <v>-84.23126092500002</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.185422591197463</v>
+      </c>
+      <c r="T71">
+        <v>2.683337087198602</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.007241414329309004</v>
+      </c>
+      <c r="W71">
+        <v>0.1823697521877059</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.04827609552872669</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1850601322807306</v>
+      </c>
+      <c r="C72">
+        <v>-423.3863545714839</v>
+      </c>
+      <c r="D72">
+        <v>453.1636454285161</v>
+      </c>
+      <c r="E72">
+        <v>515.25</v>
+      </c>
+      <c r="F72">
+        <v>992.95</v>
+      </c>
+      <c r="G72">
+        <v>116.4</v>
+      </c>
+      <c r="H72">
+        <v>940.8</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K72">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L72">
+        <v>8.68</v>
+      </c>
+      <c r="M72">
+        <v>182.404915</v>
+      </c>
+      <c r="N72">
+        <v>-173.724915</v>
+      </c>
+      <c r="O72">
+        <v>-26.05873725</v>
+      </c>
+      <c r="P72">
+        <v>-147.66617775</v>
+      </c>
+      <c r="Q72">
+        <v>-86.44617775</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1912933442373784</v>
+      </c>
+      <c r="T72">
+        <v>2.772781656771889</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.007137965553176018</v>
+      </c>
+      <c r="W72">
+        <v>0.1823887557278816</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.04758643702117349</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1868041322807306</v>
+      </c>
+      <c r="C73">
+        <v>-442.0237432988484</v>
+      </c>
+      <c r="D73">
+        <v>448.7112567011516</v>
+      </c>
+      <c r="E73">
+        <v>529.4349999999999</v>
+      </c>
+      <c r="F73">
+        <v>1007.135</v>
+      </c>
+      <c r="G73">
+        <v>116.4</v>
+      </c>
+      <c r="H73">
+        <v>940.8</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K73">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L73">
+        <v>8.68</v>
+      </c>
+      <c r="M73">
+        <v>185.0106995</v>
+      </c>
+      <c r="N73">
+        <v>-176.3306995</v>
+      </c>
+      <c r="O73">
+        <v>-26.449604925</v>
+      </c>
+      <c r="P73">
+        <v>-149.881094575</v>
+      </c>
+      <c r="Q73">
+        <v>-88.66109457499999</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.197568976797288</v>
+      </c>
+      <c r="T73">
+        <v>2.868394817350229</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.007037430827074949</v>
+      </c>
+      <c r="W73">
+        <v>0.1824072239570663</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.04691620551383302</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1885481322807306</v>
+      </c>
+      <c r="C74">
+        <v>-460.5744927308212</v>
+      </c>
+      <c r="D74">
+        <v>444.3455072691787</v>
+      </c>
+      <c r="E74">
+        <v>543.6199999999999</v>
+      </c>
+      <c r="F74">
+        <v>1021.32</v>
+      </c>
+      <c r="G74">
+        <v>116.4</v>
+      </c>
+      <c r="H74">
+        <v>940.8</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K74">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L74">
+        <v>8.68</v>
+      </c>
+      <c r="M74">
+        <v>187.616484</v>
+      </c>
+      <c r="N74">
+        <v>-178.936484</v>
+      </c>
+      <c r="O74">
+        <v>-26.84047259999999</v>
+      </c>
+      <c r="P74">
+        <v>-152.0960114</v>
+      </c>
+      <c r="Q74">
+        <v>-90.87601139999998</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.2042928688257625</v>
+      </c>
+      <c r="T74">
+        <v>2.970837489398451</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.006939688732254465</v>
+      </c>
+      <c r="W74">
+        <v>0.1824251791798848</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.04626459154836315</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1902921322807306</v>
+      </c>
+      <c r="C75">
+        <v>-479.0411073784429</v>
+      </c>
+      <c r="D75">
+        <v>440.063892621557</v>
+      </c>
+      <c r="E75">
+        <v>557.8049999999998</v>
+      </c>
+      <c r="F75">
+        <v>1035.505</v>
+      </c>
+      <c r="G75">
+        <v>116.4</v>
+      </c>
+      <c r="H75">
+        <v>940.8</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K75">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L75">
+        <v>8.68</v>
+      </c>
+      <c r="M75">
+        <v>190.2222685</v>
+      </c>
+      <c r="N75">
+        <v>-181.5422685</v>
+      </c>
+      <c r="O75">
+        <v>-27.231340275</v>
+      </c>
+      <c r="P75">
+        <v>-154.310928225</v>
+      </c>
+      <c r="Q75">
+        <v>-93.09092822499997</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.2115148269304204</v>
+      </c>
+      <c r="T75">
+        <v>3.08086850752432</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.0068446245030455</v>
+      </c>
+      <c r="W75">
+        <v>0.1824426424787906</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.04563083002030333</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1920361322807306</v>
+      </c>
+      <c r="C76">
+        <v>-497.4259961423846</v>
+      </c>
+      <c r="D76">
+        <v>435.8640038576154</v>
+      </c>
+      <c r="E76">
+        <v>571.99</v>
+      </c>
+      <c r="F76">
+        <v>1049.69</v>
+      </c>
+      <c r="G76">
+        <v>116.4</v>
+      </c>
+      <c r="H76">
+        <v>940.8</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K76">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L76">
+        <v>8.68</v>
+      </c>
+      <c r="M76">
+        <v>192.828053</v>
+      </c>
+      <c r="N76">
+        <v>-184.148053</v>
+      </c>
+      <c r="O76">
+        <v>-27.62220795</v>
+      </c>
+      <c r="P76">
+        <v>-156.52584505</v>
+      </c>
+      <c r="Q76">
+        <v>-95.30584505000002</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.2192923202738981</v>
+      </c>
+      <c r="T76">
+        <v>3.199363450121409</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.006752129577328667</v>
+      </c>
+      <c r="W76">
+        <v>0.1824596337966447</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.04501419718219113</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1937801322807306</v>
+      </c>
+      <c r="C77">
+        <v>-515.731476832256</v>
+      </c>
+      <c r="D77">
+        <v>431.743523167744</v>
+      </c>
+      <c r="E77">
+        <v>586.175</v>
+      </c>
+      <c r="F77">
+        <v>1063.875</v>
+      </c>
+      <c r="G77">
+        <v>116.4</v>
+      </c>
+      <c r="H77">
+        <v>940.8</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K77">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L77">
+        <v>8.68</v>
+      </c>
+      <c r="M77">
+        <v>195.4338375</v>
+      </c>
+      <c r="N77">
+        <v>-186.7538375</v>
+      </c>
+      <c r="O77">
+        <v>-28.013075625</v>
+      </c>
+      <c r="P77">
+        <v>-158.740761875</v>
+      </c>
+      <c r="Q77">
+        <v>-97.52076187500001</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.227692013084854</v>
+      </c>
+      <c r="T77">
+        <v>3.327337988126266</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.006662101182964285</v>
+      </c>
+      <c r="W77">
+        <v>0.1824761720126895</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.04441400788642857</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1955241322807306</v>
+      </c>
+      <c r="C78">
+        <v>-533.9597804319715</v>
+      </c>
+      <c r="D78">
+        <v>427.7002195680285</v>
+      </c>
+      <c r="E78">
+        <v>600.3599999999999</v>
+      </c>
+      <c r="F78">
+        <v>1078.06</v>
+      </c>
+      <c r="G78">
+        <v>116.4</v>
+      </c>
+      <c r="H78">
+        <v>940.8</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K78">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L78">
+        <v>8.68</v>
+      </c>
+      <c r="M78">
+        <v>198.039622</v>
+      </c>
+      <c r="N78">
+        <v>-189.359622</v>
+      </c>
+      <c r="O78">
+        <v>-28.40394329999999</v>
+      </c>
+      <c r="P78">
+        <v>-160.9556787</v>
+      </c>
+      <c r="Q78">
+        <v>-99.73567869999997</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.236791680296723</v>
+      </c>
+      <c r="T78">
+        <v>3.465977070964861</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.006574441956872651</v>
+      </c>
+      <c r="W78">
+        <v>0.1824922750125225</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.04382961304581767</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1972681322807306</v>
+      </c>
+      <c r="C79">
+        <v>-552.1130551276665</v>
+      </c>
+      <c r="D79">
+        <v>423.7319448723337</v>
+      </c>
+      <c r="E79">
+        <v>614.5450000000001</v>
+      </c>
+      <c r="F79">
+        <v>1092.245</v>
+      </c>
+      <c r="G79">
+        <v>116.4</v>
+      </c>
+      <c r="H79">
+        <v>940.8</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K79">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L79">
+        <v>8.68</v>
+      </c>
+      <c r="M79">
+        <v>200.6454065</v>
+      </c>
+      <c r="N79">
+        <v>-191.9654065</v>
+      </c>
+      <c r="O79">
+        <v>-28.794810975</v>
+      </c>
+      <c r="P79">
+        <v>-163.170595525</v>
+      </c>
+      <c r="Q79">
+        <v>-101.950595525</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2466826229183197</v>
+      </c>
+      <c r="T79">
+        <v>3.616671726224202</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.006489059593796381</v>
+      </c>
+      <c r="W79">
+        <v>0.1825079597526196</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.04326039729197595</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1990121322807306</v>
+      </c>
+      <c r="C80">
+        <v>-570.1933701134459</v>
+      </c>
+      <c r="D80">
+        <v>419.8366298865542</v>
+      </c>
+      <c r="E80">
+        <v>628.73</v>
+      </c>
+      <c r="F80">
+        <v>1106.43</v>
+      </c>
+      <c r="G80">
+        <v>116.4</v>
+      </c>
+      <c r="H80">
+        <v>940.8</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K80">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L80">
+        <v>8.68</v>
+      </c>
+      <c r="M80">
+        <v>203.251191</v>
+      </c>
+      <c r="N80">
+        <v>-194.571191</v>
+      </c>
+      <c r="O80">
+        <v>-29.18567865</v>
+      </c>
+      <c r="P80">
+        <v>-165.38551235</v>
+      </c>
+      <c r="Q80">
+        <v>-104.16551235</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2574727421418796</v>
+      </c>
+      <c r="T80">
+        <v>3.781065895598029</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.006405866522081043</v>
+      </c>
+      <c r="W80">
+        <v>0.1825232423198937</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.04270577681387366</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.2007561322807306</v>
+      </c>
+      <c r="C81">
+        <v>-588.2027191891315</v>
+      </c>
+      <c r="D81">
+        <v>416.0122808108685</v>
+      </c>
+      <c r="E81">
+        <v>642.915</v>
+      </c>
+      <c r="F81">
+        <v>1120.615</v>
+      </c>
+      <c r="G81">
+        <v>116.4</v>
+      </c>
+      <c r="H81">
+        <v>940.8</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K81">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L81">
+        <v>8.68</v>
+      </c>
+      <c r="M81">
+        <v>205.8569755</v>
+      </c>
+      <c r="N81">
+        <v>-197.1769755</v>
+      </c>
+      <c r="O81">
+        <v>-29.576546325</v>
+      </c>
+      <c r="P81">
+        <v>-167.600429175</v>
+      </c>
+      <c r="Q81">
+        <v>-106.380429175</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2692904917676834</v>
+      </c>
+      <c r="T81">
+        <v>3.961116652531269</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.006324779604080018</v>
+      </c>
+      <c r="W81">
+        <v>0.1825381379867305</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.04216519736053348</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.2025001322807306</v>
+      </c>
+      <c r="C82">
+        <v>-606.1430241631465</v>
+      </c>
+      <c r="D82">
+        <v>412.2569758368535</v>
+      </c>
+      <c r="E82">
+        <v>657.0999999999999</v>
+      </c>
+      <c r="F82">
+        <v>1134.8</v>
+      </c>
+      <c r="G82">
+        <v>116.4</v>
+      </c>
+      <c r="H82">
+        <v>940.8</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K82">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L82">
+        <v>8.68</v>
+      </c>
+      <c r="M82">
+        <v>208.46276</v>
+      </c>
+      <c r="N82">
+        <v>-199.78276</v>
+      </c>
+      <c r="O82">
+        <v>-29.967414</v>
+      </c>
+      <c r="P82">
+        <v>-169.815346</v>
+      </c>
+      <c r="Q82">
+        <v>-108.595346</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2822900163560676</v>
+      </c>
+      <c r="T82">
+        <v>4.159172485157833</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.006245719859029017</v>
+      </c>
+      <c r="W82">
+        <v>0.1825526612618964</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.04163813239352687</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.2042441322807306</v>
+      </c>
+      <c r="C83">
+        <v>-624.0161380727467</v>
+      </c>
+      <c r="D83">
+        <v>408.5688619272534</v>
+      </c>
+      <c r="E83">
+        <v>671.2850000000001</v>
+      </c>
+      <c r="F83">
+        <v>1148.985</v>
+      </c>
+      <c r="G83">
+        <v>116.4</v>
+      </c>
+      <c r="H83">
+        <v>940.8</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K83">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L83">
+        <v>8.68</v>
+      </c>
+      <c r="M83">
+        <v>211.0685445</v>
+      </c>
+      <c r="N83">
+        <v>-202.3885445</v>
+      </c>
+      <c r="O83">
+        <v>-30.358281675</v>
+      </c>
+      <c r="P83">
+        <v>-172.030262825</v>
+      </c>
+      <c r="Q83">
+        <v>-110.810262825</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2966579119537554</v>
+      </c>
+      <c r="T83">
+        <v>4.378076300166141</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.006168612206448412</v>
+      </c>
+      <c r="W83">
+        <v>0.1825668259376754</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.04112408137632273</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.2059881322807306</v>
+      </c>
+      <c r="C84">
+        <v>-641.8238482329311</v>
+      </c>
+      <c r="D84">
+        <v>404.9461517670689</v>
+      </c>
+      <c r="E84">
+        <v>685.47</v>
+      </c>
+      <c r="F84">
+        <v>1163.17</v>
+      </c>
+      <c r="G84">
+        <v>116.4</v>
+      </c>
+      <c r="H84">
+        <v>940.8</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K84">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L84">
+        <v>8.68</v>
+      </c>
+      <c r="M84">
+        <v>213.674329</v>
+      </c>
+      <c r="N84">
+        <v>-204.994329</v>
+      </c>
+      <c r="O84">
+        <v>-30.74914935</v>
+      </c>
+      <c r="P84">
+        <v>-174.24517965</v>
+      </c>
+      <c r="Q84">
+        <v>-113.02517965</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.3126222403956306</v>
+      </c>
+      <c r="T84">
+        <v>4.621302761286481</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.006093385228320992</v>
+      </c>
+      <c r="W84">
+        <v>0.1825806451335574</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.04062256818880661</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.2077321322807306</v>
+      </c>
+      <c r="C85">
+        <v>-659.5678791245741</v>
+      </c>
+      <c r="D85">
+        <v>401.3871208754259</v>
+      </c>
+      <c r="E85">
+        <v>699.655</v>
+      </c>
+      <c r="F85">
+        <v>1177.355</v>
+      </c>
+      <c r="G85">
+        <v>116.4</v>
+      </c>
+      <c r="H85">
+        <v>940.8</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K85">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L85">
+        <v>8.68</v>
+      </c>
+      <c r="M85">
+        <v>216.2801135</v>
+      </c>
+      <c r="N85">
+        <v>-207.6001135</v>
+      </c>
+      <c r="O85">
+        <v>-31.140017025</v>
+      </c>
+      <c r="P85">
+        <v>-176.460096475</v>
+      </c>
+      <c r="Q85">
+        <v>-115.240096475</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.3304647251247855</v>
+      </c>
+      <c r="T85">
+        <v>4.893144100185687</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.006019970948461704</v>
+      </c>
+      <c r="W85">
+        <v>0.1825941313367676</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.04013313965641141</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2094761322807306</v>
+      </c>
+      <c r="C86">
+        <v>-677.2498951315827</v>
+      </c>
+      <c r="D86">
+        <v>397.8901048684173</v>
+      </c>
+      <c r="E86">
+        <v>713.8399999999999</v>
+      </c>
+      <c r="F86">
+        <v>1191.54</v>
+      </c>
+      <c r="G86">
+        <v>116.4</v>
+      </c>
+      <c r="H86">
+        <v>940.8</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K86">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L86">
+        <v>8.68</v>
+      </c>
+      <c r="M86">
+        <v>218.885898</v>
+      </c>
+      <c r="N86">
+        <v>-210.205898</v>
+      </c>
+      <c r="O86">
+        <v>-31.5308847</v>
+      </c>
+      <c r="P86">
+        <v>-178.6750133</v>
+      </c>
+      <c r="Q86">
+        <v>-117.4550133</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.3505375204450843</v>
+      </c>
+      <c r="T86">
+        <v>5.198965606447289</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.005948304627646684</v>
+      </c>
+      <c r="W86">
+        <v>0.1826072964399013</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.03965536418431126</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2112201322807306</v>
+      </c>
+      <c r="C87">
+        <v>-694.8715031362058</v>
+      </c>
+      <c r="D87">
+        <v>394.4534968637942</v>
+      </c>
+      <c r="E87">
+        <v>728.0249999999999</v>
+      </c>
+      <c r="F87">
+        <v>1205.725</v>
+      </c>
+      <c r="G87">
+        <v>116.4</v>
+      </c>
+      <c r="H87">
+        <v>940.8</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K87">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L87">
+        <v>8.68</v>
+      </c>
+      <c r="M87">
+        <v>221.4916825</v>
+      </c>
+      <c r="N87">
+        <v>-212.8116825</v>
+      </c>
+      <c r="O87">
+        <v>-31.921752375</v>
+      </c>
+      <c r="P87">
+        <v>-180.889930125</v>
+      </c>
+      <c r="Q87">
+        <v>-119.669930125</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3732866884747567</v>
+      </c>
+      <c r="T87">
+        <v>5.545563313543775</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.005878324573203781</v>
+      </c>
+      <c r="W87">
+        <v>0.1826201517759025</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.03918883048802524</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2129641322807306</v>
+      </c>
+      <c r="C88">
+        <v>-712.4342549810041</v>
+      </c>
+      <c r="D88">
+        <v>391.075745018996</v>
+      </c>
+      <c r="E88">
+        <v>742.21</v>
+      </c>
+      <c r="F88">
+        <v>1219.91</v>
+      </c>
+      <c r="G88">
+        <v>116.4</v>
+      </c>
+      <c r="H88">
+        <v>940.8</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K88">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L88">
+        <v>8.68</v>
+      </c>
+      <c r="M88">
+        <v>224.097467</v>
+      </c>
+      <c r="N88">
+        <v>-215.417467</v>
+      </c>
+      <c r="O88">
+        <v>-32.31262005</v>
+      </c>
+      <c r="P88">
+        <v>-183.10484695</v>
+      </c>
+      <c r="Q88">
+        <v>-121.88484695</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.399285737651525</v>
+      </c>
+      <c r="T88">
+        <v>5.941674978796902</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.005809971961887458</v>
+      </c>
+      <c r="W88">
+        <v>0.1826327081506013</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.03873314641258307</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2147081322807306</v>
+      </c>
+      <c r="C89">
+        <v>-729.9396498053968</v>
+      </c>
+      <c r="D89">
+        <v>387.7553501946032</v>
+      </c>
+      <c r="E89">
+        <v>756.395</v>
+      </c>
+      <c r="F89">
+        <v>1234.095</v>
+      </c>
+      <c r="G89">
+        <v>116.4</v>
+      </c>
+      <c r="H89">
+        <v>940.8</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K89">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L89">
+        <v>8.68</v>
+      </c>
+      <c r="M89">
+        <v>226.7032515</v>
+      </c>
+      <c r="N89">
+        <v>-218.0232515</v>
+      </c>
+      <c r="O89">
+        <v>-32.703487725</v>
+      </c>
+      <c r="P89">
+        <v>-185.319763775</v>
+      </c>
+      <c r="Q89">
+        <v>-124.099763775</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.4292846405477962</v>
+      </c>
+      <c r="T89">
+        <v>6.398726900242818</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.005743190674969211</v>
+      </c>
+      <c r="W89">
+        <v>0.1826449758730082</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.03828793783312812</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2164521322807306</v>
+      </c>
+      <c r="C90">
+        <v>-747.389136264184</v>
+      </c>
+      <c r="D90">
+        <v>384.4908637358159</v>
+      </c>
+      <c r="E90">
+        <v>770.5799999999999</v>
+      </c>
+      <c r="F90">
+        <v>1248.28</v>
+      </c>
+      <c r="G90">
+        <v>116.4</v>
+      </c>
+      <c r="H90">
+        <v>940.8</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K90">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L90">
+        <v>8.68</v>
+      </c>
+      <c r="M90">
+        <v>229.309036</v>
+      </c>
+      <c r="N90">
+        <v>-220.629036</v>
+      </c>
+      <c r="O90">
+        <v>-33.0943554</v>
+      </c>
+      <c r="P90">
+        <v>-187.5346806</v>
+      </c>
+      <c r="Q90">
+        <v>-126.3146806</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.4642833605934459</v>
+      </c>
+      <c r="T90">
+        <v>6.93195414192972</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.005677927144571834</v>
+      </c>
+      <c r="W90">
+        <v>0.1826569647835422</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.03785284763047891</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2181961322807306</v>
+      </c>
+      <c r="C91">
+        <v>-764.784114634938</v>
+      </c>
+      <c r="D91">
+        <v>381.280885365062</v>
+      </c>
+      <c r="E91">
+        <v>784.7649999999999</v>
+      </c>
+      <c r="F91">
+        <v>1262.465</v>
+      </c>
+      <c r="G91">
+        <v>116.4</v>
+      </c>
+      <c r="H91">
+        <v>940.8</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K91">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L91">
+        <v>8.68</v>
+      </c>
+      <c r="M91">
+        <v>231.9148205</v>
+      </c>
+      <c r="N91">
+        <v>-223.2348205</v>
+      </c>
+      <c r="O91">
+        <v>-33.48522307499999</v>
+      </c>
+      <c r="P91">
+        <v>-189.749597425</v>
+      </c>
+      <c r="Q91">
+        <v>-128.529597425</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.5056454842837592</v>
+      </c>
+      <c r="T91">
+        <v>7.562131791196059</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.005614130210363162</v>
+      </c>
+      <c r="W91">
+        <v>0.1826686842803563</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.03742753473575444</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2199401322807306</v>
+      </c>
+      <c r="C92">
+        <v>-782.1259388207037</v>
+      </c>
+      <c r="D92">
+        <v>378.1240611792964</v>
+      </c>
+      <c r="E92">
+        <v>798.95</v>
+      </c>
+      <c r="F92">
+        <v>1276.65</v>
+      </c>
+      <c r="G92">
+        <v>116.4</v>
+      </c>
+      <c r="H92">
+        <v>940.8</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K92">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L92">
+        <v>8.68</v>
+      </c>
+      <c r="M92">
+        <v>234.520605</v>
+      </c>
+      <c r="N92">
+        <v>-225.840605</v>
+      </c>
+      <c r="O92">
+        <v>-33.87609075</v>
+      </c>
+      <c r="P92">
+        <v>-191.96451425</v>
+      </c>
+      <c r="Q92">
+        <v>-130.74451425</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.5552800327121352</v>
+      </c>
+      <c r="T92">
+        <v>8.318344970315666</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.005551750985803571</v>
+      </c>
+      <c r="W92">
+        <v>0.1826801433439079</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.03701167323869048</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2216841322807306</v>
+      </c>
+      <c r="C93">
+        <v>-799.4159182540305</v>
+      </c>
+      <c r="D93">
+        <v>375.0190817459695</v>
+      </c>
+      <c r="E93">
+        <v>813.135</v>
+      </c>
+      <c r="F93">
+        <v>1290.835</v>
+      </c>
+      <c r="G93">
+        <v>116.4</v>
+      </c>
+      <c r="H93">
+        <v>940.8</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K93">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L93">
+        <v>8.68</v>
+      </c>
+      <c r="M93">
+        <v>237.1263895</v>
+      </c>
+      <c r="N93">
+        <v>-228.4463895</v>
+      </c>
+      <c r="O93">
+        <v>-34.266958425</v>
+      </c>
+      <c r="P93">
+        <v>-194.179431075</v>
+      </c>
+      <c r="Q93">
+        <v>-132.959431075</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.6159444807912613</v>
+      </c>
+      <c r="T93">
+        <v>9.242605522572962</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.005490742733212323</v>
+      </c>
+      <c r="W93">
+        <v>0.1826913505599089</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.03660495155474885</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2234281322807306</v>
+      </c>
+      <c r="C94">
+        <v>-816.6553197079577</v>
+      </c>
+      <c r="D94">
+        <v>371.9646802920423</v>
+      </c>
+      <c r="E94">
+        <v>827.3199999999999</v>
+      </c>
+      <c r="F94">
+        <v>1305.02</v>
+      </c>
+      <c r="G94">
+        <v>116.4</v>
+      </c>
+      <c r="H94">
+        <v>940.8</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K94">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L94">
+        <v>8.68</v>
+      </c>
+      <c r="M94">
+        <v>239.732174</v>
+      </c>
+      <c r="N94">
+        <v>-231.052174</v>
+      </c>
+      <c r="O94">
+        <v>-34.65782609999999</v>
+      </c>
+      <c r="P94">
+        <v>-196.3943479</v>
+      </c>
+      <c r="Q94">
+        <v>-135.1743479</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.6917750408901693</v>
+      </c>
+      <c r="T94">
+        <v>10.39793121289459</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.005431060746981755</v>
+      </c>
+      <c r="W94">
+        <v>0.1827023141407794</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.03620707164654502</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2251721322807306</v>
+      </c>
+      <c r="C95">
+        <v>-833.8453690192127</v>
+      </c>
+      <c r="D95">
+        <v>368.9596309807874</v>
+      </c>
+      <c r="E95">
+        <v>841.5050000000001</v>
+      </c>
+      <c r="F95">
+        <v>1319.205</v>
+      </c>
+      <c r="G95">
+        <v>116.4</v>
+      </c>
+      <c r="H95">
+        <v>940.8</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K95">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L95">
+        <v>8.68</v>
+      </c>
+      <c r="M95">
+        <v>242.3379585</v>
+      </c>
+      <c r="N95">
+        <v>-233.6579585</v>
+      </c>
+      <c r="O95">
+        <v>-35.048693775</v>
+      </c>
+      <c r="P95">
+        <v>-198.609264725</v>
+      </c>
+      <c r="Q95">
+        <v>-137.389264725</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.7892714753030506</v>
+      </c>
+      <c r="T95">
+        <v>11.88334995759381</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.005372662244326036</v>
+      </c>
+      <c r="W95">
+        <v>0.1827130419457173</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.03581774829550699</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2269161322807306</v>
+      </c>
+      <c r="C96">
+        <v>-850.9872527285528</v>
+      </c>
+      <c r="D96">
+        <v>366.0027472714473</v>
+      </c>
+      <c r="E96">
+        <v>855.6900000000001</v>
+      </c>
+      <c r="F96">
+        <v>1333.39</v>
+      </c>
+      <c r="G96">
+        <v>116.4</v>
+      </c>
+      <c r="H96">
+        <v>940.8</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K96">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L96">
+        <v>8.68</v>
+      </c>
+      <c r="M96">
+        <v>244.943743</v>
+      </c>
+      <c r="N96">
+        <v>-236.263743</v>
+      </c>
+      <c r="O96">
+        <v>-35.43956145</v>
+      </c>
+      <c r="P96">
+        <v>-200.82418155</v>
+      </c>
+      <c r="Q96">
+        <v>-139.60418155</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.9192667211868927</v>
+      </c>
+      <c r="T96">
+        <v>13.86390828385945</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.005315506263003419</v>
+      </c>
+      <c r="W96">
+        <v>0.1827235414994863</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.03543670842002278</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2286601322807306</v>
+      </c>
+      <c r="C97">
+        <v>-868.0821196428583</v>
+      </c>
+      <c r="D97">
+        <v>363.0928803571417</v>
+      </c>
+      <c r="E97">
+        <v>869.875</v>
+      </c>
+      <c r="F97">
+        <v>1347.575</v>
+      </c>
+      <c r="G97">
+        <v>116.4</v>
+      </c>
+      <c r="H97">
+        <v>940.8</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K97">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L97">
+        <v>8.68</v>
+      </c>
+      <c r="M97">
+        <v>247.5495275</v>
+      </c>
+      <c r="N97">
+        <v>-238.8695275</v>
+      </c>
+      <c r="O97">
+        <v>-35.830429125</v>
+      </c>
+      <c r="P97">
+        <v>-203.039098375</v>
+      </c>
+      <c r="Q97">
+        <v>-141.819098375</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.101260065424272</v>
+      </c>
+      <c r="T97">
+        <v>16.63668994063135</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.00525955356549812</v>
+      </c>
+      <c r="W97">
+        <v>0.182733820010018</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.03506369043665414</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2304041322807306</v>
+      </c>
+      <c r="C98">
+        <v>-885.1310823232973</v>
+      </c>
+      <c r="D98">
+        <v>360.2289176767027</v>
+      </c>
+      <c r="E98">
+        <v>884.0599999999999</v>
+      </c>
+      <c r="F98">
+        <v>1361.76</v>
+      </c>
+      <c r="G98">
+        <v>116.4</v>
+      </c>
+      <c r="H98">
+        <v>940.8</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K98">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L98">
+        <v>8.68</v>
+      </c>
+      <c r="M98">
+        <v>250.155312</v>
+      </c>
+      <c r="N98">
+        <v>-241.475312</v>
+      </c>
+      <c r="O98">
+        <v>-36.2212968</v>
+      </c>
+      <c r="P98">
+        <v>-205.2540152</v>
+      </c>
+      <c r="Q98">
+        <v>-144.0340152</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.374250081780337</v>
+      </c>
+      <c r="T98">
+        <v>20.79586242578914</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.005204766549190848</v>
+      </c>
+      <c r="W98">
+        <v>0.1827438843849136</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.03469844366127239</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2321481322807306</v>
+      </c>
+      <c r="C99">
+        <v>-902.1352185036119</v>
+      </c>
+      <c r="D99">
+        <v>357.4097814963881</v>
+      </c>
+      <c r="E99">
+        <v>898.2449999999999</v>
+      </c>
+      <c r="F99">
+        <v>1375.945</v>
+      </c>
+      <c r="G99">
+        <v>116.4</v>
+      </c>
+      <c r="H99">
+        <v>940.8</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K99">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L99">
+        <v>8.68</v>
+      </c>
+      <c r="M99">
+        <v>252.7610965</v>
+      </c>
+      <c r="N99">
+        <v>-244.0810965</v>
+      </c>
+      <c r="O99">
+        <v>-36.61216447499999</v>
+      </c>
+      <c r="P99">
+        <v>-207.468932025</v>
+      </c>
+      <c r="Q99">
+        <v>-146.248932025</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.829233442373782</v>
+      </c>
+      <c r="T99">
+        <v>27.72781656771885</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.005151109162085788</v>
+      </c>
+      <c r="W99">
+        <v>0.1827537412469248</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.03434072774723862</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2338921322807306</v>
+      </c>
+      <c r="C100">
+        <v>-919.0955724423268</v>
+      </c>
+      <c r="D100">
+        <v>354.6344275576731</v>
+      </c>
+      <c r="E100">
+        <v>912.4299999999998</v>
+      </c>
+      <c r="F100">
+        <v>1390.13</v>
+      </c>
+      <c r="G100">
+        <v>116.4</v>
+      </c>
+      <c r="H100">
+        <v>940.8</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K100">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L100">
+        <v>8.68</v>
+      </c>
+      <c r="M100">
+        <v>255.366881</v>
+      </c>
+      <c r="N100">
+        <v>-246.686881</v>
+      </c>
+      <c r="O100">
+        <v>-37.00303215</v>
+      </c>
+      <c r="P100">
+        <v>-209.68384885</v>
+      </c>
+      <c r="Q100">
+        <v>-148.46384885</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.739200163560674</v>
+      </c>
+      <c r="T100">
+        <v>41.59172485157829</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.005098546823697158</v>
+      </c>
+      <c r="W100">
+        <v>0.1827633969484868</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.0339903121579811</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2356361322807306</v>
+      </c>
+      <c r="C101">
+        <v>-936.0131562124404</v>
+      </c>
+      <c r="D101">
+        <v>351.9018437875596</v>
+      </c>
+      <c r="E101">
+        <v>926.615</v>
+      </c>
+      <c r="F101">
+        <v>1404.315</v>
+      </c>
+      <c r="G101">
+        <v>116.4</v>
+      </c>
+      <c r="H101">
+        <v>940.8</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="K101">
+        <v>61.22000000000001</v>
+      </c>
+      <c r="L101">
+        <v>8.68</v>
+      </c>
+      <c r="M101">
+        <v>257.9726655</v>
+      </c>
+      <c r="N101">
+        <v>-249.2926655</v>
+      </c>
+      <c r="O101">
+        <v>-37.393899825</v>
+      </c>
+      <c r="P101">
+        <v>-211.898765675</v>
+      </c>
+      <c r="Q101">
+        <v>-150.678765675</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>5.469100327121347</v>
+      </c>
+      <c r="T101">
+        <v>83.18344970315658</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.005047046350730519</v>
+      </c>
+      <c r="W101">
+        <v>0.1827728575853708</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.03364697567153685</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
